--- a/trunk/data_reconciliation/nonlinear/spreadsheets/ammonia_data_en.xlsx
+++ b/trunk/data_reconciliation/nonlinear/spreadsheets/ammonia_data_en.xlsx
@@ -2,23 +2,26 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="60" windowWidth="15180" windowHeight="8070" tabRatio="842"/>
   </bookViews>
   <sheets>
-    <sheet name="flash" sheetId="8" r:id="rId1"/>
-    <sheet name="compressors" sheetId="12" r:id="rId2"/>
-    <sheet name="mixer" sheetId="11" r:id="rId3"/>
-    <sheet name="heater1" sheetId="9" r:id="rId4"/>
-    <sheet name="heater 2" sheetId="10" r:id="rId5"/>
+    <sheet name="Compare_DR" sheetId="14" r:id="rId1"/>
+    <sheet name="base_case" sheetId="13" r:id="rId2"/>
+    <sheet name="Errors" sheetId="15" r:id="rId3"/>
+    <sheet name="flash" sheetId="8" r:id="rId4"/>
+    <sheet name="compressors" sheetId="12" r:id="rId5"/>
+    <sheet name="mixer" sheetId="11" r:id="rId6"/>
+    <sheet name="heater1" sheetId="9" r:id="rId7"/>
+    <sheet name="heater 2" sheetId="10" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="165">
   <si>
     <t>File:</t>
   </si>
@@ -200,12 +203,6 @@
     <t>Change in Reactor temperature</t>
   </si>
   <si>
-    <t>Change in Pressure</t>
-  </si>
-  <si>
-    <t>Change in Temperature</t>
-  </si>
-  <si>
     <t>Temperature</t>
   </si>
   <si>
@@ -275,9 +272,6 @@
     <t>The objective here is to adjust 2 linear curves: One to predict the effect of the outlet reactor temperature in the outlet enthalpy (Hout)</t>
   </si>
   <si>
-    <t>The objective of this test is to evaluate the error commited when hwe assume that no mixing heat is</t>
-  </si>
-  <si>
     <t>involved when we mix the outlet streams of both compressors. A comparison is made calculating</t>
   </si>
   <si>
@@ -336,6 +330,192 @@
   </si>
   <si>
     <t>Since the flash temperature have the major contribution, a data fit of Temperature vs. Ki(partition coeficiet) was fitted.</t>
+  </si>
+  <si>
+    <t>This is the base case where the initial data were obtained for comparison</t>
+  </si>
+  <si>
+    <t>Stream</t>
+  </si>
+  <si>
+    <t>X_H2</t>
+  </si>
+  <si>
+    <t>X_N2</t>
+  </si>
+  <si>
+    <t>X_Ar</t>
+  </si>
+  <si>
+    <t>X_NCH4</t>
+  </si>
+  <si>
+    <t>X_NH3</t>
+  </si>
+  <si>
+    <t>Reconciled iiSE</t>
+  </si>
+  <si>
+    <t>Reconciled Scilab</t>
+  </si>
+  <si>
+    <t>Important variables</t>
+  </si>
+  <si>
+    <t>File</t>
+  </si>
+  <si>
+    <t>Change in Flash Pressure</t>
+  </si>
+  <si>
+    <t>Change in Flash Temperature</t>
+  </si>
+  <si>
+    <t>Flash Pressure</t>
+  </si>
+  <si>
+    <t>Reactor Temperature</t>
+  </si>
+  <si>
+    <t>Adjusted</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Error K(Ar)</t>
+  </si>
+  <si>
+    <t>Error K(N2)</t>
+  </si>
+  <si>
+    <t>Error K(H2)</t>
+  </si>
+  <si>
+    <t>Error K(CH4)</t>
+  </si>
+  <si>
+    <t>Error K(NH3)</t>
+  </si>
+  <si>
+    <t>DP = -10 K</t>
+  </si>
+  <si>
+    <t>DP = +10 K</t>
+  </si>
+  <si>
+    <t>DP = -5bar</t>
+  </si>
+  <si>
+    <t>Predicted</t>
+  </si>
+  <si>
+    <t>Error in partition coeficient K varying parameters</t>
+  </si>
+  <si>
+    <t>Flash Temperature (after Adjustment)</t>
+  </si>
+  <si>
+    <t>Error in copressor outlet temperature</t>
+  </si>
+  <si>
+    <t>DP = -10bar</t>
+  </si>
+  <si>
+    <t>DF=+10bar</t>
+  </si>
+  <si>
+    <t>Error Temperature</t>
+  </si>
+  <si>
+    <t>DP=+10bar</t>
+  </si>
+  <si>
+    <t>DX(N2 and H2) + 0.4</t>
+  </si>
+  <si>
+    <t>Outlet Pressure</t>
+  </si>
+  <si>
+    <t>Inlet Composition</t>
+  </si>
+  <si>
+    <t>Inlet Temperature</t>
+  </si>
+  <si>
+    <t>The objective of this test is to evaluate the error commited when we assume that no mixing heat is</t>
+  </si>
+  <si>
+    <t>Error in mixer due to consider no mixing heat</t>
+  </si>
+  <si>
+    <t>Delta Tin = +10</t>
+  </si>
+  <si>
+    <t>DX(N2 and H2) + 0.15</t>
+  </si>
+  <si>
+    <t>DX(N2 and H2) - 0.05</t>
+  </si>
+  <si>
+    <t>Assuming that Cp is calculated based on Cp data evaluated aat a mean temperature = Tin - Tout</t>
+  </si>
+  <si>
+    <t>Error Q</t>
+  </si>
+  <si>
+    <t>Assuming that the heat at Heater 2 is obtained by an adusted enthalpy from simulation data</t>
+  </si>
+  <si>
+    <t>DT = -5 K</t>
+  </si>
+  <si>
+    <t>DT = +5 K</t>
+  </si>
+  <si>
+    <t>DP=-10bar</t>
+  </si>
+  <si>
+    <t>H inlet: DT = -10 K</t>
+  </si>
+  <si>
+    <t>Hinlet: DT = +10 K</t>
+  </si>
+  <si>
+    <t>H outlet: DT = -5 K</t>
+  </si>
+  <si>
+    <t>Houtlet: DT = +5 K</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>Error (\%)</t>
+  </si>
+  <si>
+    <t>Stream 1</t>
+  </si>
+  <si>
+    <t>Stream 2</t>
+  </si>
+  <si>
+    <t>Stream 3</t>
+  </si>
+  <si>
+    <t>Stream 5</t>
+  </si>
+  <si>
+    <t>Stream 9</t>
+  </si>
+  <si>
+    <t>Stream 10</t>
+  </si>
+  <si>
+    <t>Stream 11</t>
+  </si>
+  <si>
+    <t>Error H (%)</t>
   </si>
 </sst>
 </file>
@@ -347,8 +527,8 @@
     <numFmt numFmtId="165" formatCode="0.000%"/>
     <numFmt numFmtId="166" formatCode="0.000"/>
     <numFmt numFmtId="167" formatCode="0.000000"/>
-    <numFmt numFmtId="169" formatCode="0.0000"/>
-    <numFmt numFmtId="170" formatCode="0.00000000000"/>
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="169" formatCode="0.00000000000"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -366,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -406,6 +586,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -503,14 +689,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -518,19 +704,19 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="169" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -548,10 +734,21 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -600,30 +797,12 @@
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                      <a:solidFill>
-                        <a:srgbClr val="000000"/>
-                      </a:solidFill>
-                      <a:latin typeface="Calibri"/>
-                      <a:ea typeface="Calibri"/>
-                      <a:cs typeface="Calibri"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="pt-BR"/>
-                </a:p>
-              </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>flash!$M$9:$M$13</c:f>
+              <c:f>flash!$N$9:$N$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -647,24 +826,24 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>flash!$N$9:$N$13</c:f>
+              <c:f>flash!$S$9:$S$13</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0" formatCode="0.00000000000">
-                  <c:v>125.69724514629168</c:v>
+                  <c:v>6.416107024844105E-3</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>110.59472594986663</c:v>
+                  <c:v>8.1515574228661989E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>97.689488585426943</c:v>
+                  <c:v>1.0237635918530047E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>143.47654503565082</c:v>
+                  <c:v>4.9883508626275856E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>164.53934170749019</c:v>
+                  <c:v>3.8276360728012721E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -679,11 +858,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="196026752"/>
-        <c:axId val="196028288"/>
+        <c:axId val="193688320"/>
+        <c:axId val="193689856"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="196026752"/>
+        <c:axId val="193688320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -693,106 +872,35 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="196028288"/>
+        <c:crossAx val="193689856"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="196028288"/>
+        <c:axId val="193689856"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="80"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="0.000" sourceLinked="0"/>
+        <c:numFmt formatCode="0.00000000000" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr rot="0" vert="horz"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-                <a:latin typeface="Calibri"/>
-                <a:ea typeface="Calibri"/>
-                <a:cs typeface="Calibri"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="pt-BR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="196026752"/>
+        <c:crossAx val="193688320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
-        <c:majorUnit val="20"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="920" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Calibri"/>
-              <a:ea typeface="Calibri"/>
-              <a:cs typeface="Calibri"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="pt-BR"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" baseline="0">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:latin typeface="Calibri"/>
-          <a:ea typeface="Calibri"/>
-          <a:cs typeface="Calibri"/>
-        </a:defRPr>
-      </a:pPr>
-      <a:endParaRPr lang="pt-BR"/>
-    </a:p>
-  </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -803,47 +911,64 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>116434</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>43702</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagem 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="85725" y="2228850"/>
+          <a:ext cx="6126709" cy="3148852"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 4"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
       <xdr:colOff>314325</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>1009650</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
@@ -882,10 +1007,40 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>900112</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>461962</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1221,19 +1376,2251 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R26"/>
+  <sheetPr codeName="Plan1"/>
+  <dimension ref="A3:L52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:H44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>6</v>
+      </c>
+      <c r="H5">
+        <v>7</v>
+      </c>
+      <c r="I5">
+        <v>8</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5">
+        <v>10</v>
+      </c>
+      <c r="L5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>210.00000000000003</v>
+      </c>
+      <c r="D6">
+        <v>210.00000000000003</v>
+      </c>
+      <c r="E6">
+        <v>200.00000000000003</v>
+      </c>
+      <c r="F6">
+        <v>200.00000000000003</v>
+      </c>
+      <c r="G6">
+        <v>199.00000000000003</v>
+      </c>
+      <c r="H6">
+        <v>199.00000000000003</v>
+      </c>
+      <c r="I6">
+        <v>199.00000000000003</v>
+      </c>
+      <c r="J6">
+        <v>199.00000000000003</v>
+      </c>
+      <c r="K6">
+        <v>210.00000000000003</v>
+      </c>
+      <c r="L6">
+        <v>199.00000000000003</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>908.96</v>
+      </c>
+      <c r="C7">
+        <v>908.96</v>
+      </c>
+      <c r="D7">
+        <v>1490.4187587226497</v>
+      </c>
+      <c r="E7">
+        <v>1490.4187587226497</v>
+      </c>
+      <c r="F7">
+        <v>1119.3907262632042</v>
+      </c>
+      <c r="G7">
+        <v>1119.3907262632042</v>
+      </c>
+      <c r="H7">
+        <v>745.45994708032026</v>
+      </c>
+      <c r="I7">
+        <v>164.00118835767043</v>
+      </c>
+      <c r="J7">
+        <v>581.4587587226498</v>
+      </c>
+      <c r="K7">
+        <v>581.4587587226498</v>
+      </c>
+      <c r="L7">
+        <v>373.93077918288407</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>26.284641574789362</v>
+      </c>
+      <c r="C8">
+        <v>453.84000000000003</v>
+      </c>
+      <c r="D8">
+        <v>267.16313523475912</v>
+      </c>
+      <c r="E8">
+        <v>400</v>
+      </c>
+      <c r="F8">
+        <v>406.9</v>
+      </c>
+      <c r="G8">
+        <v>-32.655000000000001</v>
+      </c>
+      <c r="H8">
+        <v>-32.655000000000001</v>
+      </c>
+      <c r="I8">
+        <v>-32.655000000000001</v>
+      </c>
+      <c r="J8">
+        <v>-32.655000000000001</v>
+      </c>
+      <c r="K8">
+        <v>-28.742294297918505</v>
+      </c>
+      <c r="L8">
+        <v>-32.655000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>0.75037799999999999</v>
+      </c>
+      <c r="C9">
+        <v>0.75037799999999999</v>
+      </c>
+      <c r="D9">
+        <v>0.75089288449253178</v>
+      </c>
+      <c r="E9">
+        <v>0.75089288449253178</v>
+      </c>
+      <c r="F9">
+        <v>0.50259708715189</v>
+      </c>
+      <c r="G9">
+        <v>0.50259708715189</v>
+      </c>
+      <c r="H9">
+        <v>0.75169777283649497</v>
+      </c>
+      <c r="I9">
+        <v>0.75169777283649497</v>
+      </c>
+      <c r="J9">
+        <v>0.75169777283649497</v>
+      </c>
+      <c r="K9">
+        <v>0.75169777283649497</v>
+      </c>
+      <c r="L9">
+        <v>5.8146423469065131E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10">
+        <v>0.24962200000000001</v>
+      </c>
+      <c r="C10">
+        <v>0.24962200000000001</v>
+      </c>
+      <c r="D10">
+        <v>0.24643870543106905</v>
+      </c>
+      <c r="E10">
+        <v>0.24643870543106905</v>
+      </c>
+      <c r="F10">
+        <v>0.16239437913856228</v>
+      </c>
+      <c r="G10">
+        <v>0.16239437913856228</v>
+      </c>
+      <c r="H10">
+        <v>0.2414624498443298</v>
+      </c>
+      <c r="I10">
+        <v>0.2414624498443298</v>
+      </c>
+      <c r="J10">
+        <v>0.2414624498443298</v>
+      </c>
+      <c r="K10">
+        <v>0.2414624498443298</v>
+      </c>
+      <c r="L10">
+        <v>4.7086253714495171E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1.3814546105085504E-21</v>
+      </c>
+      <c r="E11">
+        <v>1.3814546105085504E-21</v>
+      </c>
+      <c r="F11">
+        <v>1.1622173392063813E-21</v>
+      </c>
+      <c r="G11">
+        <v>1.1622173392063813E-21</v>
+      </c>
+      <c r="H11">
+        <v>9.2421227890620458E-22</v>
+      </c>
+      <c r="I11">
+        <v>9.2421227890620458E-22</v>
+      </c>
+      <c r="J11">
+        <v>9.2421227890620458E-22</v>
+      </c>
+      <c r="K11">
+        <v>9.2421227890620458E-22</v>
+      </c>
+      <c r="L11">
+        <v>1.6152030293782832E-22</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12">
+        <v>1.0101E-10</v>
+      </c>
+      <c r="C12">
+        <v>1.0101E-10</v>
+      </c>
+      <c r="D12">
+        <v>2.2362253384771225E-10</v>
+      </c>
+      <c r="E12">
+        <v>2.2362253384771225E-10</v>
+      </c>
+      <c r="F12">
+        <v>2.9774327658650528E-10</v>
+      </c>
+      <c r="G12">
+        <v>2.9774327658650528E-10</v>
+      </c>
+      <c r="H12">
+        <v>4.1529509953210941E-10</v>
+      </c>
+      <c r="I12">
+        <v>4.1529509953210941E-10</v>
+      </c>
+      <c r="J12">
+        <v>4.1529509953210941E-10</v>
+      </c>
+      <c r="K12">
+        <v>4.1529509953210941E-10</v>
+      </c>
+      <c r="L12">
+        <v>6.3308566227435324E-11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>109</v>
+      </c>
+      <c r="B13">
+        <v>2.0101E-7</v>
+      </c>
+      <c r="C13">
+        <v>2.0101E-7</v>
+      </c>
+      <c r="D13">
+        <v>2.6685325041204146E-3</v>
+      </c>
+      <c r="E13">
+        <v>2.6685325041204146E-3</v>
+      </c>
+      <c r="F13">
+        <v>0.33500853341180425</v>
+      </c>
+      <c r="G13">
+        <v>0.33500853341180425</v>
+      </c>
+      <c r="H13">
+        <v>6.8397769038802203E-3</v>
+      </c>
+      <c r="I13">
+        <v>6.8397769038802203E-3</v>
+      </c>
+      <c r="J13">
+        <v>6.8397769038802203E-3</v>
+      </c>
+      <c r="K13">
+        <v>6.8397769038802203E-3</v>
+      </c>
+      <c r="L13">
+        <v>0.98947673221833532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>3</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="F16">
+        <v>5</v>
+      </c>
+      <c r="G16">
+        <v>6</v>
+      </c>
+      <c r="H16">
+        <v>7</v>
+      </c>
+      <c r="I16">
+        <v>8</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+      <c r="L16">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>7</v>
+      </c>
+      <c r="B17">
+        <v>10</v>
+      </c>
+      <c r="C17">
+        <v>210</v>
+      </c>
+      <c r="D17">
+        <v>210</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+      <c r="F17">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>199</v>
+      </c>
+      <c r="H17">
+        <v>199</v>
+      </c>
+      <c r="I17">
+        <v>199</v>
+      </c>
+      <c r="J17">
+        <v>199</v>
+      </c>
+      <c r="K17">
+        <v>210</v>
+      </c>
+      <c r="L17">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="38">
+        <v>908.96312</v>
+      </c>
+      <c r="C18">
+        <v>908.96312</v>
+      </c>
+      <c r="D18">
+        <v>1573.8110999999999</v>
+      </c>
+      <c r="E18">
+        <v>1573.8110999999999</v>
+      </c>
+      <c r="F18">
+        <v>1197.4132</v>
+      </c>
+      <c r="G18">
+        <v>1197.4132</v>
+      </c>
+      <c r="H18">
+        <v>852.36915999999997</v>
+      </c>
+      <c r="I18">
+        <v>187.52122</v>
+      </c>
+      <c r="J18">
+        <v>664.84793999999999</v>
+      </c>
+      <c r="K18">
+        <v>664.84793999999999</v>
+      </c>
+      <c r="L18">
+        <v>345.04406999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19">
+        <v>27</v>
+      </c>
+      <c r="C19" s="38">
+        <v>453.84278999999998</v>
+      </c>
+      <c r="D19" s="40">
+        <v>249.99536000000001</v>
+      </c>
+      <c r="E19">
+        <v>406.92498999999998</v>
+      </c>
+      <c r="F19" s="38">
+        <v>406.92498999999998</v>
+      </c>
+      <c r="G19" s="38">
+        <v>-32.654772999999999</v>
+      </c>
+      <c r="H19" s="38">
+        <v>-32.654772999999999</v>
+      </c>
+      <c r="I19">
+        <v>-32.654772999999999</v>
+      </c>
+      <c r="J19">
+        <v>-32.654772999999999</v>
+      </c>
+      <c r="K19">
+        <v>-28.699643000000002</v>
+      </c>
+      <c r="L19">
+        <v>-32.654772999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>105</v>
+      </c>
+      <c r="B20" s="38">
+        <v>0.75037779999999998</v>
+      </c>
+      <c r="C20">
+        <v>0.75037779999999998</v>
+      </c>
+      <c r="D20">
+        <v>0.73194049999999999</v>
+      </c>
+      <c r="E20">
+        <v>0.73194049999999999</v>
+      </c>
+      <c r="F20">
+        <v>0.50472589999999995</v>
+      </c>
+      <c r="G20">
+        <v>0.50472589999999995</v>
+      </c>
+      <c r="H20">
+        <v>0.70673350000000001</v>
+      </c>
+      <c r="I20">
+        <v>0.70673350000000001</v>
+      </c>
+      <c r="J20">
+        <v>0.70673350000000001</v>
+      </c>
+      <c r="K20">
+        <v>0.70673350000000001</v>
+      </c>
+      <c r="L20">
+        <v>5.7026999999999998E-3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>106</v>
+      </c>
+      <c r="B21" s="38">
+        <v>0.24962199999999998</v>
+      </c>
+      <c r="C21">
+        <v>0.24962199999999998</v>
+      </c>
+      <c r="D21">
+        <v>0.24036349999999998</v>
+      </c>
+      <c r="E21">
+        <v>0.24036349999999998</v>
+      </c>
+      <c r="F21">
+        <v>0.16355539999999999</v>
+      </c>
+      <c r="G21">
+        <v>0.16355539999999999</v>
+      </c>
+      <c r="H21">
+        <v>0.22770559999999998</v>
+      </c>
+      <c r="I21">
+        <v>0.22770559999999998</v>
+      </c>
+      <c r="J21">
+        <v>0.22770559999999998</v>
+      </c>
+      <c r="K21">
+        <v>0.22770559999999998</v>
+      </c>
+      <c r="L21">
+        <v>5.084E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>107</v>
+      </c>
+      <c r="B22" s="38">
+        <v>0</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>108</v>
+      </c>
+      <c r="B23" s="39">
+        <v>9.5180000000000001E-11</v>
+      </c>
+      <c r="C23" s="37">
+        <v>9.5249999999999994E-11</v>
+      </c>
+      <c r="D23" s="37">
+        <v>1.1319999999999999E-10</v>
+      </c>
+      <c r="E23" s="37">
+        <v>1.133E-10</v>
+      </c>
+      <c r="F23" s="37">
+        <v>1.4760000000000001E-10</v>
+      </c>
+      <c r="G23" s="37">
+        <v>1.4769999999999999E-10</v>
+      </c>
+      <c r="H23" s="37">
+        <v>1.3699999999999999E-10</v>
+      </c>
+      <c r="I23" s="37">
+        <v>1.3689999999999999E-10</v>
+      </c>
+      <c r="J23" s="37">
+        <v>1.3699999999999999E-10</v>
+      </c>
+      <c r="K23" s="37">
+        <v>1.371E-10</v>
+      </c>
+      <c r="L23" s="37">
+        <v>1.7370000000000001E-10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="38">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="C24">
+        <v>1.9999999999999999E-7</v>
+      </c>
+      <c r="D24">
+        <v>2.7695999999999998E-2</v>
+      </c>
+      <c r="E24">
+        <v>2.7695999999999998E-2</v>
+      </c>
+      <c r="F24">
+        <v>0.33171869999999998</v>
+      </c>
+      <c r="G24">
+        <v>0.33171869999999998</v>
+      </c>
+      <c r="H24">
+        <v>6.5560899999999991E-2</v>
+      </c>
+      <c r="I24">
+        <v>6.5560899999999991E-2</v>
+      </c>
+      <c r="J24">
+        <v>6.5560899999999991E-2</v>
+      </c>
+      <c r="K24">
+        <v>6.5560899999999991E-2</v>
+      </c>
+      <c r="L24">
+        <v>0.98921329999999996</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>104</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>2</v>
+      </c>
+      <c r="D27">
+        <v>3</v>
+      </c>
+      <c r="E27">
+        <v>4</v>
+      </c>
+      <c r="F27">
+        <v>5</v>
+      </c>
+      <c r="G27">
+        <v>6</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>8</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>10</v>
+      </c>
+      <c r="L27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>7</v>
+      </c>
+      <c r="B28" s="1">
+        <f>ABS(B17-B6)/B6</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" ref="C28:L28" si="0">ABS(C17-C6)/C6</f>
+        <v>1.3534147347811431E-16</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3534147347811431E-16</v>
+      </c>
+      <c r="E28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4210854715202002E-16</v>
+      </c>
+      <c r="F28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4210854715202002E-16</v>
+      </c>
+      <c r="G28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4282266045429147E-16</v>
+      </c>
+      <c r="H28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4282266045429147E-16</v>
+      </c>
+      <c r="I28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4282266045429147E-16</v>
+      </c>
+      <c r="J28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4282266045429147E-16</v>
+      </c>
+      <c r="K28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.3534147347811431E-16</v>
+      </c>
+      <c r="L28" s="1">
+        <f t="shared" si="0"/>
+        <v>1.4282266045429147E-16</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" s="1">
+        <f t="shared" ref="B29:L29" si="1">ABS(B18-B7)/B7</f>
+        <v>3.4324942791400601E-6</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="1"/>
+        <v>3.4324942791400601E-6</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5952289106197803E-2</v>
+      </c>
+      <c r="E29" s="1">
+        <f t="shared" si="1"/>
+        <v>5.5952289106197803E-2</v>
+      </c>
+      <c r="F29" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9700839846381035E-2</v>
+      </c>
+      <c r="G29" s="1">
+        <f t="shared" si="1"/>
+        <v>6.9700839846381035E-2</v>
+      </c>
+      <c r="H29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14341375863103303</v>
+      </c>
+      <c r="I29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.14341378789911388</v>
+      </c>
+      <c r="J29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1434137503759334</v>
+      </c>
+      <c r="K29" s="1">
+        <f t="shared" si="1"/>
+        <v>0.1434137503759334</v>
+      </c>
+      <c r="L29" s="1">
+        <f t="shared" si="1"/>
+        <v>7.7251488219310299E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>6</v>
+      </c>
+      <c r="B30" s="1">
+        <f t="shared" ref="B30:L30" si="2">ABS(B19-B8)/B8</f>
+        <v>2.7215833366994319E-2</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="2"/>
+        <v>6.147540983491247E-6</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="2"/>
+        <v>6.4259521507986542E-2</v>
+      </c>
+      <c r="E30" s="1">
+        <f t="shared" si="2"/>
+        <v>1.7312474999999949E-2</v>
+      </c>
+      <c r="F30" s="1">
+        <f t="shared" si="2"/>
+        <v>6.1415581223894108E-5</v>
+      </c>
+      <c r="G30" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.9514622570025937E-6</v>
+      </c>
+      <c r="H30" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.9514622570025937E-6</v>
+      </c>
+      <c r="I30" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.9514622570025937E-6</v>
+      </c>
+      <c r="J30" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.9514622570025937E-6</v>
+      </c>
+      <c r="K30" s="1">
+        <f t="shared" si="2"/>
+        <v>-1.4839211329623115E-3</v>
+      </c>
+      <c r="L30" s="1">
+        <f t="shared" si="2"/>
+        <v>-6.9514622570025937E-6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>105</v>
+      </c>
+      <c r="B31" s="1">
+        <f t="shared" ref="B31:L31" si="3">ABS(B20-B9)/B9</f>
+        <v>2.6653233437780845E-7</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="3"/>
+        <v>2.6653233437780845E-7</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5239797691437943E-2</v>
+      </c>
+      <c r="E31" s="1">
+        <f t="shared" si="3"/>
+        <v>2.5239797691437943E-2</v>
+      </c>
+      <c r="F31" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2356251210556696E-3</v>
+      </c>
+      <c r="G31" s="1">
+        <f t="shared" si="3"/>
+        <v>4.2356251210556696E-3</v>
+      </c>
+      <c r="H31" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9816956310545476E-2</v>
+      </c>
+      <c r="I31" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9816956310545476E-2</v>
+      </c>
+      <c r="J31" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9816956310545476E-2</v>
+      </c>
+      <c r="K31" s="1">
+        <f t="shared" si="3"/>
+        <v>5.9816956310545476E-2</v>
+      </c>
+      <c r="L31" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9251802643728992E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B32" s="1">
+        <f t="shared" ref="B32:L32" si="4">ABS(B21-B10)/B10</f>
+        <v>1.1119042238115595E-16</v>
+      </c>
+      <c r="C32" s="1">
+        <f t="shared" si="4"/>
+        <v>1.1119042238115595E-16</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="4"/>
+        <v>2.465199377038748E-2</v>
+      </c>
+      <c r="E32" s="1">
+        <f t="shared" si="4"/>
+        <v>2.465199377038748E-2</v>
+      </c>
+      <c r="F32" s="1">
+        <f t="shared" si="4"/>
+        <v>7.1493906845573494E-3</v>
+      </c>
+      <c r="G32" s="1">
+        <f t="shared" si="4"/>
+        <v>7.1493906845573494E-3</v>
+      </c>
+      <c r="H32" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6973040127766536E-2</v>
+      </c>
+      <c r="I32" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6973040127766536E-2</v>
+      </c>
+      <c r="J32" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6973040127766536E-2</v>
+      </c>
+      <c r="K32" s="1">
+        <f t="shared" si="4"/>
+        <v>5.6973040127766536E-2</v>
+      </c>
+      <c r="L32" s="1">
+        <f t="shared" si="4"/>
+        <v>7.9720640088834768E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B33" s="1">
+        <v>0</v>
+      </c>
+      <c r="C33" s="1">
+        <v>0</v>
+      </c>
+      <c r="D33" s="1">
+        <v>0</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" s="1">
+        <v>0</v>
+      </c>
+      <c r="G33" s="1">
+        <v>0</v>
+      </c>
+      <c r="H33" s="1">
+        <v>0</v>
+      </c>
+      <c r="I33" s="1">
+        <v>0</v>
+      </c>
+      <c r="J33" s="1">
+        <v>0</v>
+      </c>
+      <c r="K33" s="1">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>108</v>
+      </c>
+      <c r="B34" s="1">
+        <f t="shared" ref="B34:L34" si="5">ABS(B23-B12)/B12</f>
+        <v>5.7717057717057665E-2</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="5"/>
+        <v>5.7024057024057037E-2</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.49378983391231224</v>
+      </c>
+      <c r="E34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.4933426517867931</v>
+      </c>
+      <c r="F34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50427092194265943</v>
+      </c>
+      <c r="G34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.50393506213367756</v>
+      </c>
+      <c r="H34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.67011409440094405</v>
+      </c>
+      <c r="I34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.67035488703276813</v>
+      </c>
+      <c r="J34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.67011409440094405</v>
+      </c>
+      <c r="K34" s="1">
+        <f t="shared" si="5"/>
+        <v>0.66987330176911997</v>
+      </c>
+      <c r="L34" s="1">
+        <f t="shared" si="5"/>
+        <v>1.7437045308526602</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="1">
+        <v>0</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" ref="D35:L35" si="6">ABS(D24-D13)/D13</f>
+        <v>9.3787381106414465</v>
+      </c>
+      <c r="E35" s="1">
+        <f t="shared" si="6"/>
+        <v>9.3787381106414465</v>
+      </c>
+      <c r="F35" s="1">
+        <f t="shared" si="6"/>
+        <v>9.8201480968256368E-3</v>
+      </c>
+      <c r="G35" s="1">
+        <f t="shared" si="6"/>
+        <v>9.8201480968256368E-3</v>
+      </c>
+      <c r="H35" s="1">
+        <f t="shared" si="6"/>
+        <v>8.5852395365128285</v>
+      </c>
+      <c r="I35" s="1">
+        <f t="shared" si="6"/>
+        <v>8.5852395365128285</v>
+      </c>
+      <c r="J35" s="1">
+        <f t="shared" si="6"/>
+        <v>8.5852395365128285</v>
+      </c>
+      <c r="K35" s="1">
+        <f t="shared" si="6"/>
+        <v>8.5852395365128285</v>
+      </c>
+      <c r="L35" s="1">
+        <f t="shared" si="6"/>
+        <v>2.6623386862747311E-4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>156</v>
+      </c>
+      <c r="C38" t="s">
+        <v>156</v>
+      </c>
+      <c r="D38" t="s">
+        <v>156</v>
+      </c>
+      <c r="E38" t="s">
+        <v>156</v>
+      </c>
+      <c r="F38" t="s">
+        <v>156</v>
+      </c>
+      <c r="G38" t="s">
+        <v>156</v>
+      </c>
+      <c r="H38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" t="s">
+        <v>157</v>
+      </c>
+      <c r="C39" t="s">
+        <v>158</v>
+      </c>
+      <c r="D39" t="s">
+        <v>159</v>
+      </c>
+      <c r="E39" t="s">
+        <v>160</v>
+      </c>
+      <c r="F39" t="s">
+        <v>161</v>
+      </c>
+      <c r="G39" t="s">
+        <v>162</v>
+      </c>
+      <c r="H39" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="1">
+        <v>3.4324942791400601E-6</v>
+      </c>
+      <c r="C40" s="1">
+        <v>3.4324942791400601E-6</v>
+      </c>
+      <c r="D40" s="1">
+        <v>5.5952289106197803E-2</v>
+      </c>
+      <c r="E40" s="1">
+        <v>6.9700839846381035E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>0.1434137503759334</v>
+      </c>
+      <c r="G40" s="1">
+        <v>0.1434137503759334</v>
+      </c>
+      <c r="H40" s="1">
+        <v>7.7251488219310299E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="1">
+        <v>2.7215833366994319E-2</v>
+      </c>
+      <c r="C41" s="1">
+        <v>6.147540983491247E-6</v>
+      </c>
+      <c r="D41" s="1">
+        <v>6.4259521507986542E-2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>6.1415581223894108E-5</v>
+      </c>
+      <c r="F41" s="1">
+        <v>-6.9514622570025937E-6</v>
+      </c>
+      <c r="G41" s="1">
+        <v>-1.4839211329623115E-3</v>
+      </c>
+      <c r="H41" s="1">
+        <v>-6.9514622570025937E-6</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="1">
+        <v>2.6653233437780845E-7</v>
+      </c>
+      <c r="C42" s="1">
+        <v>2.6653233437780845E-7</v>
+      </c>
+      <c r="D42" s="1">
+        <v>2.5239797691437943E-2</v>
+      </c>
+      <c r="E42" s="1">
+        <v>4.2356251210556696E-3</v>
+      </c>
+      <c r="F42" s="1">
+        <v>5.9816956310545476E-2</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5.9816956310545476E-2</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1.9251802643728992E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>106</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1.1119042238115595E-16</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1.1119042238115595E-16</v>
+      </c>
+      <c r="D43" s="1">
+        <v>2.465199377038748E-2</v>
+      </c>
+      <c r="E43" s="1">
+        <v>7.1493906845573494E-3</v>
+      </c>
+      <c r="F43" s="1">
+        <v>5.6973040127766536E-2</v>
+      </c>
+      <c r="G43" s="1">
+        <v>5.6973040127766536E-2</v>
+      </c>
+      <c r="H43" s="1">
+        <v>7.9720640088834768E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>109</v>
+      </c>
+      <c r="B44" s="1">
+        <v>0</v>
+      </c>
+      <c r="C44" s="1">
+        <v>0</v>
+      </c>
+      <c r="D44" s="1">
+        <v>9.3787381106414465</v>
+      </c>
+      <c r="E44" s="1">
+        <v>9.8201480968256368E-3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>8.5852395365128285</v>
+      </c>
+      <c r="G44" s="1">
+        <v>8.5852395365128285</v>
+      </c>
+      <c r="H44" s="1">
+        <v>2.6623386862747311E-4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>104</v>
+      </c>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+      <c r="D47">
+        <v>3</v>
+      </c>
+      <c r="E47">
+        <v>5</v>
+      </c>
+      <c r="F47">
+        <v>9</v>
+      </c>
+      <c r="G47">
+        <v>10</v>
+      </c>
+      <c r="H47">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" s="1">
+        <v>3.4324942791400601E-6</v>
+      </c>
+      <c r="C48" s="1">
+        <v>3.4324942791400601E-6</v>
+      </c>
+      <c r="D48" s="1">
+        <v>5.5952289106197803E-2</v>
+      </c>
+      <c r="E48" s="1">
+        <v>6.9700839846381035E-2</v>
+      </c>
+      <c r="F48" s="1">
+        <v>0.1434137503759334</v>
+      </c>
+      <c r="G48" s="1">
+        <v>0.1434137503759334</v>
+      </c>
+      <c r="H48" s="1">
+        <v>7.7251488219310299E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>6</v>
+      </c>
+      <c r="B49" s="1">
+        <v>2.7215833366994319E-2</v>
+      </c>
+      <c r="C49" s="1">
+        <v>6.147540983491247E-6</v>
+      </c>
+      <c r="D49" s="1">
+        <v>6.4259521507986542E-2</v>
+      </c>
+      <c r="E49" s="1">
+        <v>6.1415581223894108E-5</v>
+      </c>
+      <c r="F49" s="1">
+        <v>-6.9514622570025937E-6</v>
+      </c>
+      <c r="G49" s="1">
+        <v>-1.4839211329623115E-3</v>
+      </c>
+      <c r="H49" s="1">
+        <v>-6.9514622570025937E-6</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>105</v>
+      </c>
+      <c r="B50" s="1">
+        <v>2.6653233437780845E-7</v>
+      </c>
+      <c r="C50" s="1">
+        <v>2.6653233437780845E-7</v>
+      </c>
+      <c r="D50" s="1">
+        <v>2.5239797691437943E-2</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4.2356251210556696E-3</v>
+      </c>
+      <c r="F50" s="1">
+        <v>5.9816956310545476E-2</v>
+      </c>
+      <c r="G50" s="1">
+        <v>5.9816956310545476E-2</v>
+      </c>
+      <c r="H50" s="1">
+        <v>1.9251802643728992E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>106</v>
+      </c>
+      <c r="B51" s="1">
+        <v>1.1119042238115595E-16</v>
+      </c>
+      <c r="C51" s="1">
+        <v>1.1119042238115595E-16</v>
+      </c>
+      <c r="D51" s="1">
+        <v>2.465199377038748E-2</v>
+      </c>
+      <c r="E51" s="1">
+        <v>7.1493906845573494E-3</v>
+      </c>
+      <c r="F51" s="1">
+        <v>5.6973040127766536E-2</v>
+      </c>
+      <c r="G51" s="1">
+        <v>5.6973040127766536E-2</v>
+      </c>
+      <c r="H51" s="1">
+        <v>7.9720640088834768E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>109</v>
+      </c>
+      <c r="B52" s="1">
+        <v>0</v>
+      </c>
+      <c r="C52" s="1">
+        <v>0</v>
+      </c>
+      <c r="D52" s="1">
+        <v>9.3787381106414465</v>
+      </c>
+      <c r="E52" s="1">
+        <v>9.8201480968256368E-3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>8.5852395365128285</v>
+      </c>
+      <c r="G52" s="1">
+        <v>8.5852395365128285</v>
+      </c>
+      <c r="H52" s="1">
+        <v>2.6623386862747311E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan2"/>
+  <dimension ref="A1:L11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:L11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>104</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>4</v>
+      </c>
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3">
+        <v>6</v>
+      </c>
+      <c r="H3">
+        <v>7</v>
+      </c>
+      <c r="I3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3">
+        <v>10</v>
+      </c>
+      <c r="L3">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>10</v>
+      </c>
+      <c r="C4">
+        <v>210.00000000000003</v>
+      </c>
+      <c r="D4">
+        <v>210.00000000000003</v>
+      </c>
+      <c r="E4">
+        <v>200.00000000000003</v>
+      </c>
+      <c r="F4">
+        <v>200.00000000000003</v>
+      </c>
+      <c r="G4">
+        <v>199.00000000000003</v>
+      </c>
+      <c r="H4">
+        <v>199.00000000000003</v>
+      </c>
+      <c r="I4">
+        <v>199.00000000000003</v>
+      </c>
+      <c r="J4">
+        <v>199.00000000000003</v>
+      </c>
+      <c r="K4">
+        <v>210.00000000000003</v>
+      </c>
+      <c r="L4">
+        <v>199.00000000000003</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>907</v>
+      </c>
+      <c r="C5">
+        <v>907</v>
+      </c>
+      <c r="D5">
+        <v>1565.8704625762514</v>
+      </c>
+      <c r="E5">
+        <v>1565.8704625762514</v>
+      </c>
+      <c r="F5">
+        <v>1208.3985251115282</v>
+      </c>
+      <c r="G5">
+        <v>1208.3985251115282</v>
+      </c>
+      <c r="H5">
+        <v>844.70572125160436</v>
+      </c>
+      <c r="I5">
+        <v>185.83525867535292</v>
+      </c>
+      <c r="J5">
+        <v>658.87046257625127</v>
+      </c>
+      <c r="K5">
+        <v>658.87046257625127</v>
+      </c>
+      <c r="L5">
+        <v>363.69280385992374</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>27</v>
+      </c>
+      <c r="C6">
+        <v>453.92918990402416</v>
+      </c>
+      <c r="D6">
+        <v>252.26165109583951</v>
+      </c>
+      <c r="E6">
+        <v>410</v>
+      </c>
+      <c r="F6">
+        <v>410</v>
+      </c>
+      <c r="G6">
+        <v>-34</v>
+      </c>
+      <c r="H6">
+        <v>-34</v>
+      </c>
+      <c r="I6">
+        <v>-34</v>
+      </c>
+      <c r="J6">
+        <v>-34</v>
+      </c>
+      <c r="K6">
+        <v>-30.027810128725974</v>
+      </c>
+      <c r="L6">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
+        <v>0.74</v>
+      </c>
+      <c r="C7">
+        <v>0.74</v>
+      </c>
+      <c r="D7">
+        <v>0.72929755421648146</v>
+      </c>
+      <c r="E7">
+        <v>0.72929755421648146</v>
+      </c>
+      <c r="F7">
+        <v>0.50130613352386866</v>
+      </c>
+      <c r="G7">
+        <v>0.50130613352386866</v>
+      </c>
+      <c r="H7">
+        <v>0.71456458487422936</v>
+      </c>
+      <c r="I7">
+        <v>0.71456458487422936</v>
+      </c>
+      <c r="J7">
+        <v>0.71456458487422936</v>
+      </c>
+      <c r="K7">
+        <v>0.71456458487422936</v>
+      </c>
+      <c r="L7">
+        <v>5.9962674801961281E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>106</v>
+      </c>
+      <c r="B8">
+        <v>0.24</v>
+      </c>
+      <c r="C8">
+        <v>0.24</v>
+      </c>
+      <c r="D8">
+        <v>0.22373461408881878</v>
+      </c>
+      <c r="E8">
+        <v>0.22373461408881878</v>
+      </c>
+      <c r="F8">
+        <v>0.14200899070890385</v>
+      </c>
+      <c r="G8">
+        <v>0.14200899070890385</v>
+      </c>
+      <c r="H8">
+        <v>0.20134371047514515</v>
+      </c>
+      <c r="I8">
+        <v>0.20134371047514515</v>
+      </c>
+      <c r="J8">
+        <v>0.20134371047514515</v>
+      </c>
+      <c r="K8">
+        <v>0.20134371047514515</v>
+      </c>
+      <c r="L8">
+        <v>4.1993427767205924E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B9">
+        <v>0.01</v>
+      </c>
+      <c r="C9">
+        <v>0.01</v>
+      </c>
+      <c r="D9">
+        <v>2.2916226621380594E-2</v>
+      </c>
+      <c r="E9">
+        <v>2.2916226621380594E-2</v>
+      </c>
+      <c r="F9">
+        <v>2.969537088504106E-2</v>
+      </c>
+      <c r="G9">
+        <v>2.969537088504106E-2</v>
+      </c>
+      <c r="H9">
+        <v>4.0696683040363571E-2</v>
+      </c>
+      <c r="I9">
+        <v>4.0696683040363571E-2</v>
+      </c>
+      <c r="J9">
+        <v>4.0696683040363571E-2</v>
+      </c>
+      <c r="K9">
+        <v>4.0696683040363571E-2</v>
+      </c>
+      <c r="L9">
+        <v>4.1439406113343187E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>108</v>
+      </c>
+      <c r="B10">
+        <v>0.01</v>
+      </c>
+      <c r="C10">
+        <v>0.01</v>
+      </c>
+      <c r="D10">
+        <v>2.1403675387884805E-2</v>
+      </c>
+      <c r="E10">
+        <v>2.1403675387884805E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.7735372382522414E-2</v>
+      </c>
+      <c r="G10">
+        <v>2.7735372382522418E-2</v>
+      </c>
+      <c r="H10">
+        <v>3.7101956255369425E-2</v>
+      </c>
+      <c r="I10">
+        <v>3.7101956255369425E-2</v>
+      </c>
+      <c r="J10">
+        <v>3.7101956255369425E-2</v>
+      </c>
+      <c r="K10">
+        <v>3.7101956255369425E-2</v>
+      </c>
+      <c r="L10">
+        <v>5.9807297225478043E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2.6479296854344664E-3</v>
+      </c>
+      <c r="E11">
+        <v>2.6479296854344664E-3</v>
+      </c>
+      <c r="F11">
+        <v>0.29925413249966398</v>
+      </c>
+      <c r="G11">
+        <v>0.29925413249966398</v>
+      </c>
+      <c r="H11">
+        <v>6.2930653548925802E-3</v>
+      </c>
+      <c r="I11">
+        <v>6.2930653548925811E-3</v>
+      </c>
+      <c r="J11">
+        <v>6.2930653548925802E-3</v>
+      </c>
+      <c r="K11">
+        <v>6.2930653548925802E-3</v>
+      </c>
+      <c r="L11">
+        <v>0.97967971940920129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan3"/>
+  <dimension ref="A1:J32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" customWidth="1"/>
+    <col min="1" max="1" width="21.5703125" customWidth="1"/>
+    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
+    <col min="7" max="7" width="22.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43" t="s">
+        <v>130</v>
+      </c>
+      <c r="G2" s="43"/>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E3" t="s">
+        <v>150</v>
+      </c>
+      <c r="F3" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B4" s="42">
+        <v>-2.9904494224162995E-3</v>
+      </c>
+      <c r="C4" s="42">
+        <v>2.8178013543003312E-3</v>
+      </c>
+      <c r="D4" s="42">
+        <v>2.0662531892132484E-2</v>
+      </c>
+      <c r="E4" s="42">
+        <v>2.0662531892132484E-2</v>
+      </c>
+      <c r="F4" s="42">
+        <v>1.0367499826413858E-2</v>
+      </c>
+      <c r="G4" s="42">
+        <v>1.1019757841901123E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
+        <v>121</v>
+      </c>
+      <c r="B5" s="42">
+        <v>-3.3665136031496706E-3</v>
+      </c>
+      <c r="C5" s="42">
+        <v>3.1737366859504938E-3</v>
+      </c>
+      <c r="D5" s="42">
+        <v>1.8758105733869487E-2</v>
+      </c>
+      <c r="E5" s="42">
+        <v>1.8758105733869487E-2</v>
+      </c>
+      <c r="F5" s="42">
+        <v>3.7481760965283055E-3</v>
+      </c>
+      <c r="G5" s="42">
+        <v>3.9178680167092101E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B6" s="42">
+        <v>-2.367592499838304E-3</v>
+      </c>
+      <c r="C6" s="42">
+        <v>2.2300055409168128E-3</v>
+      </c>
+      <c r="D6" s="42">
+        <v>1.9700311242003749E-2</v>
+      </c>
+      <c r="E6" s="42">
+        <v>1.9700311242003749E-2</v>
+      </c>
+      <c r="F6" s="42">
+        <v>6.9849752407012211E-5</v>
+      </c>
+      <c r="G6" s="42">
+        <v>8.1364154517777739E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="B7" s="42">
+        <v>-2.8567488881890298E-3</v>
+      </c>
+      <c r="C7" s="42">
+        <v>2.6922481332711011E-3</v>
+      </c>
+      <c r="D7" s="42">
+        <v>1.7994345648640178E-2</v>
+      </c>
+      <c r="E7" s="42">
+        <v>1.7994345648640178E-2</v>
+      </c>
+      <c r="F7" s="42">
+        <v>8.7367423644724436E-5</v>
+      </c>
+      <c r="G7" s="42">
+        <v>9.4669656474064519E-5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" s="41" t="s">
+        <v>124</v>
+      </c>
+      <c r="B8" s="42">
+        <v>7.4081563980355457E-5</v>
+      </c>
+      <c r="C8" s="42">
+        <v>-6.808850856859593E-5</v>
+      </c>
+      <c r="D8" s="42">
+        <v>1.8571492299770485E-2</v>
+      </c>
+      <c r="E8" s="42">
+        <v>1.8571492299770485E-2</v>
+      </c>
+      <c r="F8" s="42">
+        <v>2.0980121192243344E-2</v>
+      </c>
+      <c r="G8" s="42">
+        <v>2.7581454537897579E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="41" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="43"/>
+      <c r="D12" t="s">
+        <v>138</v>
+      </c>
+      <c r="E12" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="F12" s="43"/>
+      <c r="G12" s="43" t="s">
+        <v>137</v>
+      </c>
+      <c r="H12" s="43"/>
+      <c r="I12" s="43" t="s">
+        <v>139</v>
+      </c>
+      <c r="J12" s="43"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>132</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>136</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" t="s">
+        <v>132</v>
+      </c>
+      <c r="H13" t="s">
+        <v>133</v>
+      </c>
+      <c r="I13" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="2">
+        <v>2.092000907701952E-4</v>
+      </c>
+      <c r="C14" s="2">
+        <v>1.9661683510032796E-4</v>
+      </c>
+      <c r="D14" s="2">
+        <v>-2.1810010574550781E-3</v>
+      </c>
+      <c r="E14" s="2">
+        <v>1.7623862710109489E-2</v>
+      </c>
+      <c r="F14" s="2">
+        <v>1.7689952195272463E-2</v>
+      </c>
+      <c r="G14" s="42">
+        <v>6.8895406124802397E-2</v>
+      </c>
+      <c r="H14" s="2">
+        <v>4.0033827455843198E-3</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>138</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>143</v>
+      </c>
+      <c r="C22" t="s">
+        <v>144</v>
+      </c>
+      <c r="D22" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>134</v>
+      </c>
+      <c r="B23" s="2">
+        <v>9.3177451860451295E-3</v>
+      </c>
+      <c r="C23" s="2">
+        <v>-2.7743234939364304E-3</v>
+      </c>
+      <c r="D23" s="2">
+        <v>1.9698055730479812E-4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" s="42">
+        <v>3.4726811683874301E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" t="s">
+        <v>60</v>
+      </c>
+      <c r="D30" t="s">
+        <v>60</v>
+      </c>
+      <c r="E30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>151</v>
+      </c>
+      <c r="C31" t="s">
+        <v>152</v>
+      </c>
+      <c r="D31" t="s">
+        <v>153</v>
+      </c>
+      <c r="E31" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>164</v>
+      </c>
+      <c r="B32" s="2">
+        <v>9.5890299411673601E-5</v>
+      </c>
+      <c r="C32" s="2">
+        <v>8.3988404566889493E-5</v>
+      </c>
+      <c r="D32" s="2">
+        <v>3.1856986790196302E-4</v>
+      </c>
+      <c r="E32" s="2">
+        <v>2.8929754478061688E-4</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="G12:H12"/>
+    <mergeCell ref="E12:F12"/>
+  </mergeCells>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan4"/>
+  <dimension ref="A1:S47"/>
+  <sheetViews>
+    <sheetView topLeftCell="N24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q46" activeCellId="4" sqref="Q26 Q31 Q36 Q41 Q46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="5" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="11" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="16" max="18" width="18.28515625" bestFit="1" customWidth="1"/>
@@ -1936,9 +4323,9 @@
     <col min="16157" max="16159" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -1947,9 +4334,9 @@
       <c r="F1" s="29"/>
       <c r="G1" s="30"/>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -1958,9 +4345,9 @@
       <c r="F2" s="27"/>
       <c r="G2" s="32"/>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
@@ -1969,9 +4356,9 @@
       <c r="F3" s="27"/>
       <c r="G3" s="32"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B4" s="27"/>
       <c r="C4" s="27"/>
@@ -1980,9 +4367,9 @@
       <c r="F4" s="27"/>
       <c r="G4" s="32"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="35" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="33"/>
       <c r="C5" s="33"/>
@@ -1991,754 +4378,1216 @@
       <c r="F5" s="33"/>
       <c r="G5" s="34"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B6" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="27"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>58</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="C8" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="36"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36" t="s">
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="43"/>
+      <c r="G8" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="J8" s="43"/>
+      <c r="K8" s="43"/>
+      <c r="L8" s="43"/>
+      <c r="N8" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36" t="s">
+      <c r="O8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="M8" t="s">
+      <c r="P8" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="N8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="O8" s="7" t="s">
+      <c r="R8" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="S8" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="Q8" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="R8" s="7" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="C9" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="D9" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="E9" s="14" t="s">
         <v>50</v>
       </c>
-      <c r="E9" s="14" t="s">
+      <c r="F9" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="F9" s="17" t="s">
+      <c r="G9" s="17" t="s">
         <v>52</v>
       </c>
-      <c r="G9" s="17" t="s">
+      <c r="H9" s="17" t="s">
         <v>53</v>
       </c>
-      <c r="H9" s="19" t="s">
+      <c r="I9" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="19" t="s">
+      <c r="J9" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="19" t="s">
+      <c r="K9" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="K9" s="19" t="s">
+      <c r="L9" s="19" t="s">
         <v>57</v>
       </c>
-      <c r="M9" s="21">
+      <c r="N9" s="21">
         <v>-34</v>
       </c>
-      <c r="N9" s="22">
+      <c r="O9" s="22">
         <v>125.69724514629168</v>
       </c>
-      <c r="O9" s="22">
+      <c r="P9" s="22">
         <v>48.923144129188628</v>
       </c>
-      <c r="P9" s="22">
+      <c r="Q9" s="22">
         <v>9.8480858480337741</v>
       </c>
-      <c r="Q9" s="22">
+      <c r="R9" s="22">
         <v>6.2202766435651782</v>
       </c>
-      <c r="R9" s="22">
+      <c r="S9" s="22">
         <v>6.416107024844105E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="41" t="s">
+        <v>61</v>
+      </c>
+      <c r="B10">
         <v>125.69724512323981</v>
       </c>
-      <c r="B10" s="14">
+      <c r="C10" s="14">
         <v>125.3213538691617</v>
       </c>
-      <c r="C10" s="14">
+      <c r="D10" s="14">
         <v>124.92392755629309</v>
       </c>
-      <c r="D10" s="15">
+      <c r="E10" s="15">
         <v>126.0514349907799</v>
       </c>
-      <c r="E10" s="14">
+      <c r="F10" s="14">
         <v>126.38402009109151</v>
-      </c>
-      <c r="F10" s="17">
-        <v>128.29446845935195</v>
       </c>
       <c r="G10" s="17">
         <v>128.29446845935195</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
+        <v>128.29446845935195</v>
+      </c>
+      <c r="I10" s="19">
         <v>110.59472594986663</v>
       </c>
-      <c r="I10" s="19">
+      <c r="J10" s="19">
         <v>97.689488585426943</v>
       </c>
-      <c r="J10" s="19">
+      <c r="K10" s="19">
         <v>143.47654503565082</v>
       </c>
-      <c r="K10" s="19">
+      <c r="L10" s="19">
         <v>164.53934170749019</v>
       </c>
-      <c r="M10" s="21">
+      <c r="N10" s="21">
         <v>-29</v>
       </c>
-      <c r="N10" s="21">
+      <c r="O10" s="21">
         <v>110.59472594986663</v>
       </c>
-      <c r="O10" s="21">
+      <c r="P10" s="21">
         <v>45.186544229448927</v>
       </c>
-      <c r="P10" s="21">
+      <c r="Q10" s="21">
         <v>9.605720705647423</v>
       </c>
-      <c r="Q10" s="21">
+      <c r="R10" s="21">
         <v>6.0776037382818755</v>
       </c>
-      <c r="R10" s="21">
+      <c r="S10" s="21">
         <v>8.1515574228661989E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="41" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11">
         <v>48.923144133030476</v>
       </c>
-      <c r="B11" s="14">
+      <c r="C11" s="14">
         <v>48.758443702797777</v>
       </c>
-      <c r="C11" s="14">
+      <c r="D11" s="14">
         <v>48.584398482513656</v>
       </c>
-      <c r="D11" s="15">
+      <c r="E11" s="15">
         <v>49.078413310357519</v>
       </c>
-      <c r="E11" s="14">
+      <c r="F11" s="14">
         <v>49.224285230331297</v>
-      </c>
-      <c r="F11" s="17">
-        <v>49.840849643511199</v>
       </c>
       <c r="G11" s="17">
         <v>49.840849643511199</v>
       </c>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
+        <v>49.840849643511199</v>
+      </c>
+      <c r="I11" s="19">
         <v>45.186544229448927</v>
       </c>
-      <c r="I11" s="19">
+      <c r="J11" s="19">
         <v>41.779823812804047</v>
       </c>
-      <c r="J11" s="19">
+      <c r="K11" s="19">
         <v>53.033897346204583</v>
       </c>
-      <c r="K11" s="19">
+      <c r="L11" s="19">
         <v>57.570561759436835</v>
       </c>
-      <c r="M11" s="21">
+      <c r="N11" s="21">
         <v>-24</v>
       </c>
-      <c r="N11" s="21">
+      <c r="O11" s="21">
         <v>97.689488585426943</v>
       </c>
-      <c r="O11" s="21">
+      <c r="P11" s="21">
         <v>41.779823812804047</v>
       </c>
-      <c r="P11" s="21">
+      <c r="Q11" s="21">
         <v>9.362047995155578</v>
       </c>
-      <c r="Q11" s="21">
+      <c r="R11" s="21">
         <v>5.933885219273888</v>
       </c>
-      <c r="R11" s="21">
+      <c r="S11" s="21">
         <v>1.0237635918530047E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="41" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12">
         <v>9.8480858517987073</v>
       </c>
-      <c r="B12" s="14">
+      <c r="C12" s="14">
         <v>9.824769597598225</v>
       </c>
-      <c r="C12" s="14">
+      <c r="D12" s="14">
         <v>9.800107231633028</v>
       </c>
-      <c r="D12" s="15">
+      <c r="E12" s="15">
         <v>9.8700471378156429</v>
       </c>
-      <c r="E12" s="14">
+      <c r="F12" s="14">
         <v>9.8906560152446765</v>
-      </c>
-      <c r="F12" s="17">
-        <v>10.042096208217115</v>
       </c>
       <c r="G12" s="17">
         <v>10.042096208217115</v>
       </c>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
+        <v>10.042096208217115</v>
+      </c>
+      <c r="I12" s="19">
         <v>9.605720705647423</v>
       </c>
-      <c r="I12" s="19">
+      <c r="J12" s="19">
         <v>9.362047995155578</v>
       </c>
-      <c r="J12" s="19">
+      <c r="K12" s="19">
         <v>10.088971690712297</v>
       </c>
-      <c r="K12" s="19">
+      <c r="L12" s="19">
         <v>10.328175156688854</v>
       </c>
-      <c r="M12" s="21">
+      <c r="N12" s="21">
         <v>-39</v>
       </c>
-      <c r="N12" s="21">
+      <c r="O12" s="21">
         <v>143.47654503565082</v>
       </c>
-      <c r="O12" s="21">
+      <c r="P12" s="21">
         <v>53.033897346204583</v>
       </c>
-      <c r="P12" s="21">
+      <c r="Q12" s="21">
         <v>10.088971690712297</v>
       </c>
-      <c r="Q12" s="21">
+      <c r="R12" s="21">
         <v>6.3618221579417504</v>
       </c>
-      <c r="R12" s="21">
+      <c r="S12" s="21">
         <v>4.9883508626275856E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="41" t="s">
+        <v>64</v>
+      </c>
+      <c r="B13">
         <v>6.2202766459362033</v>
       </c>
-      <c r="B13" s="14">
+      <c r="C13" s="14">
         <v>6.2025068775436969</v>
       </c>
-      <c r="C13" s="14">
+      <c r="D13" s="14">
         <v>6.1837222907342753</v>
       </c>
-      <c r="D13" s="15">
+      <c r="E13" s="15">
         <v>6.2370231741246549</v>
       </c>
-      <c r="E13" s="14">
+      <c r="F13" s="14">
         <v>6.2527477429354503</v>
-      </c>
-      <c r="F13" s="17">
-        <v>6.3322064539333436</v>
       </c>
       <c r="G13" s="17">
         <v>6.3322064539333436</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
+        <v>6.3322064539333436</v>
+      </c>
+      <c r="I13" s="19">
         <v>6.0776037382818755</v>
       </c>
-      <c r="I13" s="19">
+      <c r="J13" s="19">
         <v>5.933885219273888</v>
       </c>
-      <c r="J13" s="19">
+      <c r="K13" s="19">
         <v>6.3618221579417504</v>
       </c>
-      <c r="K13" s="19">
+      <c r="L13" s="19">
         <v>6.502143841249401</v>
       </c>
-      <c r="M13" s="21">
+      <c r="N13" s="21">
         <v>-44</v>
       </c>
-      <c r="N13" s="21">
+      <c r="O13" s="21">
         <v>164.53934170749019</v>
       </c>
-      <c r="O13" s="21">
+      <c r="P13" s="21">
         <v>57.570561759436835</v>
       </c>
-      <c r="P13" s="21">
+      <c r="Q13" s="21">
         <v>10.328175156688854</v>
       </c>
-      <c r="Q13" s="21">
+      <c r="R13" s="21">
         <v>6.502143841249401</v>
       </c>
-      <c r="R13" s="21">
+      <c r="S13" s="21">
         <v>3.8276360728012721E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="41" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
         <v>6.4161070248325439E-3</v>
       </c>
-      <c r="B14" s="14">
+      <c r="C14" s="14">
         <v>6.4165823400756088E-3</v>
       </c>
-      <c r="C14" s="14">
+      <c r="D14" s="14">
         <v>6.4170987034501241E-3</v>
       </c>
-      <c r="D14" s="15">
+      <c r="E14" s="15">
         <v>6.4156701616744066E-3</v>
       </c>
-      <c r="E14" s="14">
+      <c r="F14" s="14">
         <v>6.4152695190434058E-3</v>
-      </c>
-      <c r="F14" s="17">
-        <v>6.5352637070387248E-3</v>
       </c>
       <c r="G14" s="17">
         <v>6.5352637070387248E-3</v>
       </c>
-      <c r="H14" s="19">
+      <c r="H14" s="17">
+        <v>6.5352637070387248E-3</v>
+      </c>
+      <c r="I14" s="19">
         <v>8.1515574228661989E-3</v>
       </c>
-      <c r="I14" s="19">
+      <c r="J14" s="19">
         <v>1.0237635918530047E-2</v>
       </c>
-      <c r="J14" s="19">
+      <c r="K14" s="19">
         <v>4.9883508626275856E-3</v>
       </c>
-      <c r="K14" s="19">
+      <c r="L14" s="19">
         <v>3.8276360728012721E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="26" t="s">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="C15" s="16">
+        <f t="shared" ref="C15:L15" si="0">(C10-$B10)/$B10</f>
+        <v>-2.9904494224162995E-3</v>
+      </c>
+      <c r="D15" s="16">
+        <f t="shared" si="0"/>
+        <v>-6.152223671954918E-3</v>
+      </c>
+      <c r="E15" s="16">
+        <f t="shared" si="0"/>
+        <v>2.8178013543003312E-3</v>
+      </c>
+      <c r="F15" s="16">
+        <f t="shared" si="0"/>
+        <v>5.4637233073672863E-3</v>
+      </c>
+      <c r="G15" s="18">
+        <f t="shared" si="0"/>
+        <v>2.0662531892132484E-2</v>
+      </c>
+      <c r="H15" s="18">
+        <f t="shared" si="0"/>
+        <v>2.0662531892132484E-2</v>
+      </c>
+      <c r="I15" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.12014996158878362</v>
+      </c>
+      <c r="J15" s="20">
+        <f t="shared" si="0"/>
+        <v>-0.22281917563390252</v>
+      </c>
+      <c r="K15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.14144542225232778</v>
+      </c>
+      <c r="L15" s="20">
+        <f t="shared" si="0"/>
+        <v>0.30901310960449185</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="C16" s="16">
+        <f t="shared" ref="C16:L16" si="1">(C11-$B11)/$B11</f>
+        <v>-3.3665136031496706E-3</v>
+      </c>
+      <c r="D16" s="16">
+        <f t="shared" si="1"/>
+        <v>-6.924036803434226E-3</v>
+      </c>
+      <c r="E16" s="16">
+        <f t="shared" si="1"/>
+        <v>3.1737366859504938E-3</v>
+      </c>
+      <c r="F16" s="16">
+        <f t="shared" si="1"/>
+        <v>6.1553913313904442E-3</v>
+      </c>
+      <c r="G16" s="18">
+        <f t="shared" si="1"/>
+        <v>1.8758105733869487E-2</v>
+      </c>
+      <c r="H16" s="18">
+        <f t="shared" si="1"/>
+        <v>1.8758105733869487E-2</v>
+      </c>
+      <c r="I16" s="20">
+        <f t="shared" si="1"/>
+        <v>-7.637693712859274E-2</v>
+      </c>
+      <c r="J16" s="20">
+        <f t="shared" si="1"/>
+        <v>-0.14601106381884427</v>
+      </c>
+      <c r="K16" s="20">
+        <f t="shared" si="1"/>
+        <v>8.4024714396855993E-2</v>
+      </c>
+      <c r="L16" s="20">
+        <f t="shared" si="1"/>
+        <v>0.17675514891055524</v>
+      </c>
+      <c r="N16" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="O16" s="9">
+        <f>SLOPE(O9:O13,$N9:$N13)</f>
+        <v>-3.3316305065982137</v>
+      </c>
+      <c r="P16" s="9">
+        <f>SLOPE(P9:P13,$N9:$N13)</f>
+        <v>-0.78857658020042465</v>
+      </c>
+      <c r="Q16" s="9">
+        <f>SLOPE(Q9:Q13,$N9:$N13)</f>
+        <v>-4.8310106162628513E-2</v>
+      </c>
+      <c r="R16" s="9">
+        <f>SLOPE(R9:R13,$N9:$N13)</f>
+        <v>-2.841471327221802E-2</v>
+      </c>
+      <c r="S16" s="13">
+        <f>SLOPE(S9:S13,$N9:$N13)</f>
+        <v>3.1966412503392326E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17" s="41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" s="16">
+        <f t="shared" ref="C17:L17" si="2">(C12-$B12)/$B12</f>
+        <v>-2.367592499838304E-3</v>
+      </c>
+      <c r="D17" s="16">
+        <f t="shared" si="2"/>
+        <v>-4.871872655021205E-3</v>
+      </c>
+      <c r="E17" s="16">
+        <f t="shared" si="2"/>
+        <v>2.2300055409168128E-3</v>
+      </c>
+      <c r="F17" s="16">
+        <f t="shared" si="2"/>
+        <v>4.3226840308458478E-3</v>
+      </c>
+      <c r="G17" s="18">
+        <f t="shared" si="2"/>
+        <v>1.9700311242003749E-2</v>
+      </c>
+      <c r="H17" s="18">
+        <f t="shared" si="2"/>
+        <v>1.9700311242003749E-2</v>
+      </c>
+      <c r="I17" s="20">
+        <f t="shared" si="2"/>
+        <v>-2.4610381123659424E-2</v>
+      </c>
+      <c r="J17" s="20">
+        <f t="shared" si="2"/>
+        <v>-4.9353535697940411E-2</v>
+      </c>
+      <c r="K17" s="20">
+        <f t="shared" si="2"/>
+        <v>2.4460168456958874E-2</v>
+      </c>
+      <c r="L17" s="20">
+        <f t="shared" si="2"/>
+        <v>4.8749504433134118E-2</v>
+      </c>
+      <c r="N17" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="O17" s="6">
+        <f>INDEX(LINEST(O9:O13,$N9:$N13,TRUE),2)</f>
+        <v>15.124032060605956</v>
+      </c>
+      <c r="P17" s="6">
+        <f>INDEX(LINEST(P9:P13,$N9:$N13,TRUE),2)</f>
+        <v>22.487190528602152</v>
+      </c>
+      <c r="Q17" s="6">
+        <f>INDEX(LINEST(Q9:Q13,$N9:$N13,TRUE),2)</f>
+        <v>8.2040566697182165</v>
+      </c>
+      <c r="R17" s="6">
+        <f>INDEX(LINEST(R9:R13,$N9:$N13,TRUE),2)</f>
+        <v>5.2530460688070058</v>
+      </c>
+      <c r="S17" s="6">
+        <f>INDEX(LINEST(S9:S13,$N9:$N13,TRUE),2)</f>
+        <v>1.7592837711487237E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18" s="41" t="s">
         <v>100</v>
       </c>
-      <c r="B15" s="16">
-        <f>(B10-$A10)/$A10</f>
-        <v>-2.9904494224162995E-3</v>
-      </c>
-      <c r="C15" s="16">
-        <f>(C10-$A10)/$A10</f>
-        <v>-6.152223671954918E-3</v>
-      </c>
-      <c r="D15" s="16">
-        <f>(D10-$A10)/$A10</f>
-        <v>2.8178013543003312E-3</v>
-      </c>
-      <c r="E15" s="16">
-        <f>(E10-$A10)/$A10</f>
-        <v>5.4637233073672863E-3</v>
-      </c>
-      <c r="F15" s="18">
-        <f>(F10-$A10)/$A10</f>
-        <v>2.0662531892132484E-2</v>
-      </c>
-      <c r="G15" s="18">
-        <f>(G10-$A10)/$A10</f>
-        <v>2.0662531892132484E-2</v>
-      </c>
-      <c r="H15" s="20">
-        <f>(H10-$A10)/$A10</f>
-        <v>-0.12014996158878362</v>
-      </c>
-      <c r="I15" s="20">
-        <f>(I10-$A10)/$A10</f>
-        <v>-0.22281917563390252</v>
-      </c>
-      <c r="J15" s="20">
-        <f>(J10-$A10)/$A10</f>
-        <v>0.14144542225232778</v>
-      </c>
-      <c r="K15" s="20">
-        <f>(K10-$A10)/$A10</f>
-        <v>0.30901310960449185</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+      <c r="C18" s="16">
+        <f t="shared" ref="C18:L18" si="3">(C13-$B13)/$B13</f>
+        <v>-2.8567488881890298E-3</v>
+      </c>
+      <c r="D18" s="16">
+        <f t="shared" si="3"/>
+        <v>-5.8766446064435988E-3</v>
+      </c>
+      <c r="E18" s="16">
+        <f t="shared" si="3"/>
+        <v>2.6922481332711011E-3</v>
+      </c>
+      <c r="F18" s="16">
+        <f t="shared" si="3"/>
+        <v>5.2202014231088629E-3</v>
+      </c>
+      <c r="G18" s="18">
+        <f t="shared" si="3"/>
+        <v>1.7994345648640178E-2</v>
+      </c>
+      <c r="H18" s="18">
+        <f t="shared" si="3"/>
+        <v>1.7994345648640178E-2</v>
+      </c>
+      <c r="I18" s="20">
+        <f t="shared" si="3"/>
+        <v>-2.29367463499454E-2</v>
+      </c>
+      <c r="J18" s="20">
+        <f t="shared" si="3"/>
+        <v>-4.6041589942694749E-2</v>
+      </c>
+      <c r="K18" s="20">
+        <f t="shared" si="3"/>
+        <v>2.2755501091421847E-2</v>
+      </c>
+      <c r="L18" s="20">
+        <f t="shared" si="3"/>
+        <v>4.5314253908199667E-2</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="O18">
+        <f>INDEX(LINEST(O9:O13,$N9:$N13,TRUE,TRUE),3)</f>
+        <v>0.99075916101998018</v>
+      </c>
+      <c r="P18">
+        <f>INDEX(LINEST(P9:P13,$N9:$N13,TRUE,TRUE),3)</f>
+        <v>0.99681644270675762</v>
+      </c>
+      <c r="Q18">
+        <f>INDEX(LINEST(Q9:Q13,$N9:$N13,TRUE,TRUE),3)</f>
+        <v>0.99998668968399129</v>
+      </c>
+      <c r="R18">
+        <f>INDEX(LINEST(R9:R13,$N9:$N13,TRUE,TRUE),3)</f>
+        <v>0.9999777817125497</v>
+      </c>
+      <c r="S18">
+        <f>INDEX(LINEST(S9:S13,$N9:$N13,TRUE,TRUE),3)</f>
+        <v>0.98711467686628351</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="41" t="s">
         <v>101</v>
       </c>
-      <c r="B16" s="16">
-        <f>(B11-$A11)/$A11</f>
-        <v>-3.3665136031496706E-3</v>
-      </c>
-      <c r="C16" s="16">
-        <f>(C11-$A11)/$A11</f>
-        <v>-6.924036803434226E-3</v>
-      </c>
-      <c r="D16" s="16">
-        <f>(D11-$A11)/$A11</f>
-        <v>3.1737366859504938E-3</v>
-      </c>
-      <c r="E16" s="16">
-        <f>(E11-$A11)/$A11</f>
-        <v>6.1553913313904442E-3</v>
-      </c>
-      <c r="F16" s="18">
-        <f>(F11-$A11)/$A11</f>
-        <v>1.8758105733869487E-2</v>
-      </c>
-      <c r="G16" s="18">
-        <f>(G11-$A11)/$A11</f>
-        <v>1.8758105733869487E-2</v>
-      </c>
-      <c r="H16" s="20">
-        <f>(H11-$A11)/$A11</f>
-        <v>-7.637693712859274E-2</v>
-      </c>
-      <c r="I16" s="20">
-        <f>(I11-$A11)/$A11</f>
-        <v>-0.14601106381884427</v>
-      </c>
-      <c r="J16" s="20">
-        <f>(J11-$A11)/$A11</f>
-        <v>8.4024714396855993E-2</v>
-      </c>
-      <c r="K16" s="20">
-        <f>(K11-$A11)/$A11</f>
-        <v>0.17675514891055524</v>
-      </c>
-      <c r="M16" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="N16" s="9">
-        <f>SLOPE(N9:N13,$M9:$M13)</f>
-        <v>-3.3316305065982137</v>
-      </c>
-      <c r="O16" s="9">
-        <f>SLOPE(O9:O13,$M9:$M13)</f>
-        <v>-0.78857658020042465</v>
-      </c>
-      <c r="P16" s="9">
-        <f>SLOPE(P9:P13,$M9:$M13)</f>
-        <v>-4.8310106162628513E-2</v>
-      </c>
-      <c r="Q16" s="9">
-        <f>SLOPE(Q9:Q13,$M9:$M13)</f>
-        <v>-2.841471327221802E-2</v>
-      </c>
-      <c r="R16" s="13">
-        <f>SLOPE(R9:R13,$M9:$M13)</f>
-        <v>3.1966412503392326E-4</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>102</v>
-      </c>
-      <c r="B17" s="16">
-        <f>(B12-$A12)/$A12</f>
-        <v>-2.367592499838304E-3</v>
-      </c>
-      <c r="C17" s="16">
-        <f>(C12-$A12)/$A12</f>
-        <v>-4.871872655021205E-3</v>
-      </c>
-      <c r="D17" s="16">
-        <f>(D12-$A12)/$A12</f>
-        <v>2.2300055409168128E-3</v>
-      </c>
-      <c r="E17" s="16">
-        <f>(E12-$A12)/$A12</f>
-        <v>4.3226840308458478E-3</v>
-      </c>
-      <c r="F17" s="18">
-        <f>(F12-$A12)/$A12</f>
-        <v>1.9700311242003749E-2</v>
-      </c>
-      <c r="G17" s="18">
-        <f>(G12-$A12)/$A12</f>
-        <v>1.9700311242003749E-2</v>
-      </c>
-      <c r="H17" s="20">
-        <f>(H12-$A12)/$A12</f>
-        <v>-2.4610381123659424E-2</v>
-      </c>
-      <c r="I17" s="20">
-        <f>(I12-$A12)/$A12</f>
-        <v>-4.9353535697940411E-2</v>
-      </c>
-      <c r="J17" s="20">
-        <f>(J12-$A12)/$A12</f>
-        <v>2.4460168456958874E-2</v>
-      </c>
-      <c r="K17" s="20">
-        <f>(K12-$A12)/$A12</f>
-        <v>4.8749504433134118E-2</v>
-      </c>
-      <c r="M17" s="9" t="s">
+      <c r="C19" s="16">
+        <f t="shared" ref="C19:L19" si="4">(C14-$B14)/$B14</f>
+        <v>7.4081563980355457E-5</v>
+      </c>
+      <c r="D19" s="16">
+        <f t="shared" si="4"/>
+        <v>1.545607973405151E-4</v>
+      </c>
+      <c r="E19" s="16">
+        <f t="shared" si="4"/>
+        <v>-6.808850856859593E-5</v>
+      </c>
+      <c r="F19" s="16">
+        <f t="shared" si="4"/>
+        <v>-1.3053176730011312E-4</v>
+      </c>
+      <c r="G19" s="18">
+        <f t="shared" si="4"/>
+        <v>1.8571492299770485E-2</v>
+      </c>
+      <c r="H19" s="18">
+        <f t="shared" si="4"/>
+        <v>1.8571492299770485E-2</v>
+      </c>
+      <c r="I19" s="20">
+        <f t="shared" si="4"/>
+        <v>0.27048339301649182</v>
+      </c>
+      <c r="J19" s="20">
+        <f t="shared" si="4"/>
+        <v>0.59561489216231434</v>
+      </c>
+      <c r="K19" s="20">
+        <f t="shared" si="4"/>
+        <v>-0.22252686195524018</v>
+      </c>
+      <c r="L19" s="20">
+        <f t="shared" si="4"/>
+        <v>-0.40343325664815094</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H21" s="21">
         <v>34</v>
       </c>
-      <c r="N17" s="6">
-        <f>INDEX(LINEST(N9:N13,M9:M13,TRUE),2)</f>
-        <v>15.124032060605956</v>
-      </c>
-      <c r="O17" s="6">
-        <f>INDEX(LINEST(O9:O13,N9:N13,TRUE),2)</f>
-        <v>19.023977427445033</v>
-      </c>
-      <c r="P17" s="6">
-        <f>INDEX(LINEST(P9:P13,O9:O13,TRUE),2)</f>
-        <v>6.8366726349940352</v>
-      </c>
-      <c r="Q17" s="6">
-        <f>INDEX(LINEST(Q9:Q13,P9:P13,TRUE),2)</f>
-        <v>0.42761670672116026</v>
-      </c>
-      <c r="R17">
-        <f>INDEX(LINEST(R9:R13,Q9:Q13,TRUE),2)</f>
-        <v>7.6725372756861324E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A18" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="B18" s="16">
-        <f>(B13-$A13)/$A13</f>
-        <v>-2.8567488881890298E-3</v>
-      </c>
-      <c r="C18" s="16">
-        <f>(C13-$A13)/$A13</f>
-        <v>-5.8766446064435988E-3</v>
-      </c>
-      <c r="D18" s="16">
-        <f>(D13-$A13)/$A13</f>
-        <v>2.6922481332711011E-3</v>
-      </c>
-      <c r="E18" s="16">
-        <f>(E13-$A13)/$A13</f>
-        <v>5.2202014231088629E-3</v>
-      </c>
-      <c r="F18" s="18">
-        <f>(F13-$A13)/$A13</f>
-        <v>1.7994345648640178E-2</v>
-      </c>
-      <c r="G18" s="18">
-        <f>(G13-$A13)/$A13</f>
-        <v>1.7994345648640178E-2</v>
-      </c>
-      <c r="H18" s="20">
-        <f>(H13-$A13)/$A13</f>
-        <v>-2.29367463499454E-2</v>
-      </c>
-      <c r="I18" s="20">
-        <f>(I13-$A13)/$A13</f>
-        <v>-4.6041589942694749E-2</v>
-      </c>
-      <c r="J18" s="20">
-        <f>(J13-$A13)/$A13</f>
-        <v>2.2755501091421847E-2</v>
-      </c>
-      <c r="K18" s="20">
-        <f>(K13-$A13)/$A13</f>
-        <v>4.5314253908199667E-2</v>
-      </c>
-      <c r="M18" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="N18">
-        <f>INDEX(LINEST(N9:N13,M9:M13,TRUE,TRUE),3)</f>
-        <v>0.99075916101998018</v>
-      </c>
-      <c r="O18">
-        <f>INDEX(LINEST(O9:O13,N9:N13,TRUE,TRUE),3)</f>
-        <v>0.99841155352536537</v>
-      </c>
-      <c r="P18">
-        <f>INDEX(LINEST(P9:P13,O9:O13,TRUE,TRUE),3)</f>
-        <v>0.9963921761336948</v>
-      </c>
-      <c r="Q18">
-        <f>INDEX(LINEST(Q9:Q13,P9:P13,TRUE,TRUE),3)</f>
-        <v>0.99999886075449373</v>
-      </c>
-      <c r="R18">
-        <f>INDEX(LINEST(R9:R13,Q9:Q13,TRUE,TRUE),3)</f>
-        <v>0.98815343654092225</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A19" s="26" t="s">
-        <v>104</v>
-      </c>
-      <c r="B19" s="16">
-        <f>(B14-$A14)/$A14</f>
-        <v>7.4081563980355457E-5</v>
-      </c>
-      <c r="C19" s="16">
-        <f>(C14-$A14)/$A14</f>
-        <v>1.545607973405151E-4</v>
-      </c>
-      <c r="D19" s="16">
-        <f>(D14-$A14)/$A14</f>
-        <v>-6.808850856859593E-5</v>
-      </c>
-      <c r="E19" s="16">
-        <f>(E14-$A14)/$A14</f>
-        <v>-1.3053176730011312E-4</v>
-      </c>
-      <c r="F19" s="18">
-        <f>(F14-$A14)/$A14</f>
-        <v>1.8571492299770485E-2</v>
-      </c>
-      <c r="G19" s="18">
-        <f>(G14-$A14)/$A14</f>
-        <v>1.8571492299770485E-2</v>
-      </c>
-      <c r="H19" s="20">
-        <f>(H14-$A14)/$A14</f>
-        <v>0.27048339301649182</v>
-      </c>
-      <c r="I19" s="20">
-        <f>(I14-$A14)/$A14</f>
-        <v>0.59561489216231434</v>
-      </c>
-      <c r="J19" s="20">
-        <f>(J14-$A14)/$A14</f>
-        <v>-0.22252686195524018</v>
-      </c>
-      <c r="K19" s="20">
-        <f>(K14-$A14)/$A14</f>
-        <v>-0.40343325664815094</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G21" s="21">
-        <v>34</v>
-      </c>
-      <c r="H21" s="21">
+      <c r="I21" s="21">
         <v>29</v>
       </c>
-      <c r="I21" s="21">
+      <c r="J21" s="21">
         <v>24</v>
       </c>
-      <c r="J21" s="21">
+      <c r="K21" s="21">
         <v>39</v>
       </c>
-      <c r="K21" s="21">
+      <c r="L21" s="21">
         <v>44</v>
       </c>
     </row>
-    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G22" s="22">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H22" s="22">
         <v>125.69724514629168</v>
       </c>
-      <c r="H22" s="21">
+      <c r="I22" s="21">
         <v>110.59472594986663</v>
       </c>
-      <c r="I22" s="21">
+      <c r="J22" s="21">
         <v>97.689488585426943</v>
       </c>
-      <c r="J22" s="21">
+      <c r="K22" s="21">
         <v>143.47654503565082</v>
       </c>
-      <c r="K22" s="21">
+      <c r="L22" s="21">
         <v>164.53934170749019</v>
       </c>
-    </row>
-    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G23" s="22">
+      <c r="O22" t="s">
+        <v>119</v>
+      </c>
+      <c r="P22" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>10</v>
+      </c>
+      <c r="R22" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H23" s="22">
         <v>48.923144129188628</v>
       </c>
-      <c r="H23" s="21">
+      <c r="I23" s="21">
         <v>45.186544229448927</v>
       </c>
-      <c r="I23" s="21">
+      <c r="J23" s="21">
         <v>41.779823812804047</v>
       </c>
-      <c r="J23" s="21">
+      <c r="K23" s="21">
         <v>53.033897346204583</v>
       </c>
-      <c r="K23" s="21">
+      <c r="L23" s="21">
         <v>57.570561759436835</v>
       </c>
-    </row>
-    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G24" s="22">
+      <c r="N23" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="O23" s="22">
+        <v>125.69724514629168</v>
+      </c>
+      <c r="P23">
+        <f>$N9*$O$16+$O$17</f>
+        <v>128.39946928494521</v>
+      </c>
+      <c r="Q23" s="1">
+        <f>ABS(P23-O23)/O23</f>
+        <v>2.1497878776170262E-2</v>
+      </c>
+      <c r="R23" s="21">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H24" s="22">
         <v>9.8480858480337741</v>
       </c>
-      <c r="H24" s="21">
+      <c r="I24" s="21">
         <v>9.605720705647423</v>
       </c>
-      <c r="I24" s="21">
+      <c r="J24" s="21">
         <v>9.362047995155578</v>
       </c>
-      <c r="J24" s="21">
+      <c r="K24" s="21">
         <v>10.088971690712297</v>
       </c>
-      <c r="K24" s="21">
+      <c r="L24" s="21">
         <v>10.328175156688854</v>
       </c>
-    </row>
-    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G25" s="22">
+      <c r="N24" s="44"/>
+      <c r="O24" s="21">
+        <v>110.59472594986663</v>
+      </c>
+      <c r="P24">
+        <f t="shared" ref="P24:P27" si="5">$N10*$O$16+$O$17</f>
+        <v>111.74131675195416</v>
+      </c>
+      <c r="Q24" s="1">
+        <f t="shared" ref="Q24:Q47" si="6">ABS(P24-O24)/O24</f>
+        <v>1.0367499826413858E-2</v>
+      </c>
+      <c r="R24" s="21">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H25" s="22">
         <v>6.2202766435651782</v>
       </c>
-      <c r="H25" s="21">
+      <c r="I25" s="21">
         <v>6.0776037382818755</v>
       </c>
-      <c r="I25" s="21">
+      <c r="J25" s="21">
         <v>5.933885219273888</v>
       </c>
-      <c r="J25" s="21">
+      <c r="K25" s="21">
         <v>6.3618221579417504</v>
       </c>
-      <c r="K25" s="21">
+      <c r="L25" s="21">
         <v>6.502143841249401</v>
       </c>
-    </row>
-    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="G26" s="22">
+      <c r="N25" s="44"/>
+      <c r="O25" s="21">
+        <v>97.689488585426943</v>
+      </c>
+      <c r="P25">
+        <f t="shared" si="5"/>
+        <v>95.083164218963091</v>
+      </c>
+      <c r="Q25" s="1">
+        <f t="shared" si="6"/>
+        <v>2.6679680733354319E-2</v>
+      </c>
+      <c r="R25" s="21">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="H26" s="22">
         <v>6.416107024844105E-3</v>
       </c>
-      <c r="H26" s="21">
+      <c r="I26" s="21">
         <v>8.1515574228661989E-3</v>
       </c>
-      <c r="I26" s="21">
+      <c r="J26" s="21">
         <v>1.0237635918530047E-2</v>
       </c>
-      <c r="J26" s="21">
+      <c r="K26" s="21">
         <v>4.9883508626275856E-3</v>
       </c>
-      <c r="K26" s="21">
+      <c r="L26" s="21">
         <v>3.8276360728012721E-3</v>
       </c>
+      <c r="N26" s="44"/>
+      <c r="O26" s="21">
+        <v>143.47654503565082</v>
+      </c>
+      <c r="P26">
+        <f t="shared" si="5"/>
+        <v>145.05762181793631</v>
+      </c>
+      <c r="Q26" s="1">
+        <f t="shared" si="6"/>
+        <v>1.1019757841901123E-2</v>
+      </c>
+      <c r="R26" s="21">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N27" s="44"/>
+      <c r="O27" s="21">
+        <v>164.53934170749019</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="5"/>
+        <v>161.71577435092735</v>
+      </c>
+      <c r="Q27" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7160439122106397E-2</v>
+      </c>
+      <c r="R27" s="21">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N28" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="O28" s="22">
+        <v>48.923144129188628</v>
+      </c>
+      <c r="P28">
+        <f>$N9*$P$16+$P$17</f>
+        <v>49.298794255416595</v>
+      </c>
+      <c r="Q28" s="1">
+        <f t="shared" si="6"/>
+        <v>7.6783725354202213E-3</v>
+      </c>
+      <c r="R28" s="21">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N29" s="44"/>
+      <c r="O29" s="21">
+        <v>45.186544229448927</v>
+      </c>
+      <c r="P29">
+        <f t="shared" ref="P29:P32" si="7">$N10*$P$16+$P$17</f>
+        <v>45.355911354414467</v>
+      </c>
+      <c r="Q29" s="1">
+        <f t="shared" si="6"/>
+        <v>3.7481760965283055E-3</v>
+      </c>
+      <c r="R29" s="21">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N30" s="44"/>
+      <c r="O30" s="21">
+        <v>41.779823812804047</v>
+      </c>
+      <c r="P30">
+        <f t="shared" si="7"/>
+        <v>41.413028453412345</v>
+      </c>
+      <c r="Q30" s="1">
+        <f t="shared" si="6"/>
+        <v>8.7792461987188201E-3</v>
+      </c>
+      <c r="R30" s="21">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N31" s="44"/>
+      <c r="O31" s="21">
+        <v>53.033897346204583</v>
+      </c>
+      <c r="P31">
+        <f t="shared" si="7"/>
+        <v>53.241677156418717</v>
+      </c>
+      <c r="Q31" s="1">
+        <f t="shared" si="6"/>
+        <v>3.9178680167092101E-3</v>
+      </c>
+      <c r="R31" s="21">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N32" s="44"/>
+      <c r="O32" s="21">
+        <v>57.570561759436835</v>
+      </c>
+      <c r="P32">
+        <f t="shared" si="7"/>
+        <v>57.184560057420839</v>
+      </c>
+      <c r="Q32" s="1">
+        <f t="shared" si="6"/>
+        <v>6.7048451538293929E-3</v>
+      </c>
+      <c r="R32" s="21">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="33" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N33" s="44" t="s">
+        <v>63</v>
+      </c>
+      <c r="O33" s="22">
+        <v>9.8480858480337741</v>
+      </c>
+      <c r="P33">
+        <f>$N9*$Q$16+$Q$17</f>
+        <v>9.8466002792475855</v>
+      </c>
+      <c r="Q33" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5084848051818655E-4</v>
+      </c>
+      <c r="R33" s="21">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="34" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N34" s="44"/>
+      <c r="O34" s="21">
+        <v>9.605720705647423</v>
+      </c>
+      <c r="P34">
+        <f t="shared" ref="P34:P37" si="8">$N10*$Q$16+$Q$17</f>
+        <v>9.6050497484344426</v>
+      </c>
+      <c r="Q34" s="1">
+        <f t="shared" si="6"/>
+        <v>6.9849752407012211E-5</v>
+      </c>
+      <c r="R34" s="21">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="35" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N35" s="44"/>
+      <c r="O35" s="21">
+        <v>9.362047995155578</v>
+      </c>
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>9.3634992176213014</v>
+      </c>
+      <c r="Q35" s="1">
+        <f t="shared" si="6"/>
+        <v>1.5501121832257528E-4</v>
+      </c>
+      <c r="R35" s="21">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="36" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N36" s="44"/>
+      <c r="O36" s="21">
+        <v>10.088971690712297</v>
+      </c>
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>10.088150810060728</v>
+      </c>
+      <c r="Q36" s="1">
+        <f t="shared" si="6"/>
+        <v>8.1364154517777739E-5</v>
+      </c>
+      <c r="R36" s="21">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="37" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N37" s="44"/>
+      <c r="O37" s="21">
+        <v>10.328175156688854</v>
+      </c>
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>10.329701340873871</v>
+      </c>
+      <c r="Q37" s="1">
+        <f t="shared" si="6"/>
+        <v>1.4776900680554329E-4</v>
+      </c>
+      <c r="R37" s="21">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="38" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N38" s="44" t="s">
+        <v>64</v>
+      </c>
+      <c r="O38" s="22">
+        <v>6.2202766435651782</v>
+      </c>
+      <c r="P38">
+        <f>$N9*$R$16+$R$17</f>
+        <v>6.2191463200624186</v>
+      </c>
+      <c r="Q38" s="1">
+        <f t="shared" si="6"/>
+        <v>1.8171595373155222E-4</v>
+      </c>
+      <c r="R38" s="21">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="39" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N39" s="44"/>
+      <c r="O39" s="21">
+        <v>6.0776037382818755</v>
+      </c>
+      <c r="P39">
+        <f t="shared" ref="P39:P42" si="9">$N10*$R$16+$R$17</f>
+        <v>6.0770727537013283</v>
+      </c>
+      <c r="Q39" s="1">
+        <f t="shared" si="6"/>
+        <v>8.7367423644724436E-5</v>
+      </c>
+      <c r="R39" s="21">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="40" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N40" s="44"/>
+      <c r="O40" s="21">
+        <v>5.933885219273888</v>
+      </c>
+      <c r="P40">
+        <f t="shared" si="9"/>
+        <v>5.9349991873402379</v>
+      </c>
+      <c r="Q40" s="1">
+        <f t="shared" si="6"/>
+        <v>1.877299653069804E-4</v>
+      </c>
+      <c r="R40" s="21">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="41" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N41" s="44"/>
+      <c r="O41" s="21">
+        <v>6.3618221579417504</v>
+      </c>
+      <c r="P41">
+        <f t="shared" si="9"/>
+        <v>6.361219886423509</v>
+      </c>
+      <c r="Q41" s="1">
+        <f t="shared" si="6"/>
+        <v>9.4669656474064519E-5</v>
+      </c>
+      <c r="R41" s="21">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="42" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N42" s="44"/>
+      <c r="O42" s="21">
+        <v>6.502143841249401</v>
+      </c>
+      <c r="P42">
+        <f t="shared" si="9"/>
+        <v>6.5032934527845985</v>
+      </c>
+      <c r="Q42" s="1">
+        <f t="shared" si="6"/>
+        <v>1.7680499897654317E-4</v>
+      </c>
+      <c r="R42" s="21">
+        <v>-44</v>
+      </c>
+    </row>
+    <row r="43" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N43" s="44" t="s">
+        <v>65</v>
+      </c>
+      <c r="O43" s="22">
+        <v>6.416107024844105E-3</v>
+      </c>
+      <c r="P43">
+        <f>$N9*$S$16+$S$17</f>
+        <v>6.7242574603338465E-3</v>
+      </c>
+      <c r="Q43" s="1">
+        <f t="shared" si="6"/>
+        <v>4.8027633313555716E-2</v>
+      </c>
+      <c r="R43" s="21">
+        <v>-34</v>
+      </c>
+    </row>
+    <row r="44" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N44" s="44"/>
+      <c r="O44" s="21">
+        <v>8.1515574228661989E-3</v>
+      </c>
+      <c r="P44">
+        <f>$N10*$S$16+$S$17</f>
+        <v>8.3225780855034626E-3</v>
+      </c>
+      <c r="Q44" s="1">
+        <f t="shared" si="6"/>
+        <v>2.0980121192243344E-2</v>
+      </c>
+      <c r="R44" s="21">
+        <v>-29</v>
+      </c>
+    </row>
+    <row r="45" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N45" s="44"/>
+      <c r="O45" s="21">
+        <v>1.0237635918530047E-2</v>
+      </c>
+      <c r="P45">
+        <f>$N11*$S$16+$S$17</f>
+        <v>9.9208987106730786E-3</v>
+      </c>
+      <c r="Q45" s="1">
+        <f t="shared" si="6"/>
+        <v>3.0938510646161644E-2</v>
+      </c>
+      <c r="R45" s="21">
+        <v>-24</v>
+      </c>
+    </row>
+    <row r="46" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N46" s="44"/>
+      <c r="O46" s="21">
+        <v>4.9883508626275856E-3</v>
+      </c>
+      <c r="P46">
+        <f>$N12*$S$16+$S$17</f>
+        <v>5.1259368351642305E-3</v>
+      </c>
+      <c r="Q46" s="1">
+        <f t="shared" si="6"/>
+        <v>2.7581454537897579E-2</v>
+      </c>
+      <c r="R46" s="21">
+        <v>-39</v>
+      </c>
+    </row>
+    <row r="47" spans="14:18" x14ac:dyDescent="0.25">
+      <c r="N47" s="44"/>
+      <c r="O47" s="21">
+        <v>3.8276360728012721E-3</v>
+      </c>
+      <c r="P47">
+        <f>$N13*$S$16+$S$17</f>
+        <v>3.5276162099946145E-3</v>
+      </c>
+      <c r="Q47" s="1">
+        <f t="shared" si="6"/>
+        <v>7.8382546590195223E-2</v>
+      </c>
+      <c r="R47" s="21">
+        <v>-44</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="F8:G8"/>
-    <mergeCell ref="H8:K8"/>
+  <mergeCells count="8">
+    <mergeCell ref="N33:N37"/>
+    <mergeCell ref="N38:N42"/>
+    <mergeCell ref="N43:N47"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="G8:H8"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="N23:N27"/>
+    <mergeCell ref="N28:N32"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
@@ -2746,12 +5595,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N32"/>
+  <sheetPr codeName="Plan5"/>
+  <dimension ref="A1:O32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2766,9 +5616,9 @@
     <col min="11" max="11" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -2778,9 +5628,9 @@
       <c r="G1" s="29"/>
       <c r="H1" s="30"/>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -2790,9 +5640,9 @@
       <c r="G2" s="27"/>
       <c r="H2" s="32"/>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -2802,48 +5652,58 @@
       <c r="G3" s="33"/>
       <c r="H3" s="34"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B4" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B5" s="36"/>
+      <c r="B5" s="43"/>
       <c r="C5" s="12"/>
-      <c r="D5" s="36" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
+      <c r="F5" s="43"/>
       <c r="G5" s="12"/>
-      <c r="I5" s="12"/>
+      <c r="H5" s="12"/>
       <c r="J5" s="12"/>
       <c r="K5" s="12"/>
       <c r="L5" s="12"/>
       <c r="M5" s="12"/>
       <c r="N5" s="12"/>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="O5" s="12"/>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>39</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>60</v>
+      </c>
+      <c r="C6" t="s">
+        <v>128</v>
       </c>
       <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
       </c>
-      <c r="E6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>210.00000000000003</v>
       </c>
@@ -2851,15 +5711,31 @@
         <f>453.929189904023 -27</f>
         <v>426.92918990402302</v>
       </c>
-      <c r="D8">
+      <c r="C8">
+        <f>A8*$B$14+$B$15</f>
+        <v>426.84268640416479</v>
+      </c>
+      <c r="D8" s="2">
+        <f>ABS(B8-C8)/B8</f>
+        <v>2.0261790925486084E-4</v>
+      </c>
+      <c r="E8">
         <v>210.00000000000003</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <f>-30.0149727869388 +34</f>
         <v>3.9850272130612012</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f>E8*$F$14+$F$15</f>
+        <v>3.9551155564707301</v>
+      </c>
+      <c r="H8" s="42">
+        <f>ABS(F8-G8)/F8</f>
+        <v>7.5060106220689307E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>205.00000000000003</v>
       </c>
@@ -2867,15 +5743,31 @@
         <f>449.010234411418-27</f>
         <v>422.01023441141803</v>
       </c>
-      <c r="D9">
+      <c r="C9">
+        <f t="shared" ref="C9:C12" si="0">A9*$B$14+$B$15</f>
+        <v>421.96554385912009</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:D12" si="1">ABS(B9-C9)/B9</f>
+        <v>1.0589921441186554E-4</v>
+      </c>
+      <c r="E9">
         <v>205.00000000000003</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <f>-31.7729974602315+34</f>
         <v>2.2270025397684989</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" ref="G9:G12" si="2">E9*$F$14+$F$15</f>
+        <v>2.2115502543418728</v>
+      </c>
+      <c r="H9" s="42">
+        <f t="shared" ref="H9:H12" si="3">ABS(F9-G9)/F9</f>
+        <v>6.9386025164715022E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>200.00000000000003</v>
       </c>
@@ -2883,15 +5775,31 @@
         <f>444.001164632583-27</f>
         <v>417.00116463258303</v>
       </c>
-      <c r="D10">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>417.08840131407544</v>
+      </c>
+      <c r="D10" s="2">
+        <f t="shared" si="1"/>
+        <v>2.092000907701952E-4</v>
+      </c>
+      <c r="E10">
         <v>200.00000000000003</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <f>-33.5621789096188+34</f>
         <v>0.43782109038119899</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.4679849522130155</v>
+      </c>
+      <c r="H10" s="42">
+        <f t="shared" si="3"/>
+        <v>6.8895406124802397E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>215.00000000000003</v>
       </c>
@@ -2899,15 +5807,31 @@
         <f>458.761697018569-27</f>
         <v>431.76169701856901</v>
       </c>
-      <c r="D11">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>431.7198289492095</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" si="1"/>
+        <v>9.6970318693435697E-5</v>
+      </c>
+      <c r="E11">
         <v>215.00000000000003</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <f>-28.2868438635337+34</f>
         <v>5.7131561364662993</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>5.6986808585995874</v>
+      </c>
+      <c r="H11" s="42">
+        <f t="shared" si="3"/>
+        <v>2.5336744736098051E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>220.00000000000003</v>
       </c>
@@ -2915,25 +5839,42 @@
         <f>463.511146054231-27</f>
         <v>436.51114605423101</v>
       </c>
-      <c r="D12">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>436.59697149425421</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="1"/>
+        <v>1.9661683510032796E-4</v>
+      </c>
+      <c r="E12">
         <v>220.00000000000003</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <f>-26.5874291973234+34</f>
         <v>7.4125708026766013</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="B13" s="36"/>
-      <c r="D13" s="36" t="s">
-        <v>93</v>
-      </c>
-      <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>7.4422461607284589</v>
+      </c>
+      <c r="H12" s="42">
+        <f t="shared" si="3"/>
+        <v>4.0033827455843198E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A13" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="43"/>
+      <c r="E13" s="43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>33</v>
       </c>
@@ -2941,12 +5882,12 @@
         <f>SLOPE(B8:B12,A8:A12)</f>
         <v>0.97542850900893885</v>
       </c>
-      <c r="E14">
-        <f>SLOPE(E8:E12,D8:D12)</f>
+      <c r="F14">
+        <f>SLOPE(F8:F12,E8:E12)</f>
         <v>0.34871306042577216</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -2954,42 +5895,42 @@
         <f>INDEX(LINEST(B8:B12,A8:A12,TRUE),2)</f>
         <v>222.00269951228762</v>
       </c>
-      <c r="E15" s="6">
-        <f>INDEX(LINEST(E8:E12,D8:D12,TRUE),2)</f>
+      <c r="F15" s="6">
+        <f>INDEX(LINEST(F8:F12,E8:E12,TRUE),2)</f>
         <v>-69.274627132941433</v>
       </c>
-      <c r="F15" s="6">
-        <f>E15+273</f>
+      <c r="G15" s="6">
+        <f>F15+273</f>
         <v>203.72537286705858</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B16" s="6">
         <f>INDEX(LINEST(B8:B12,A8:A12,TRUE,TRUE),3)</f>
         <v>0.99988982670003768</v>
       </c>
-      <c r="E16" s="6">
-        <f>INDEX(LINEST(E8:E12,D8:D12,TRUE,TRUE),3)</f>
+      <c r="F16" s="6">
+        <f>INDEX(LINEST(F8:F12,E8:E12,TRUE,TRUE),3)</f>
         <v>0.99989693566106042</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E17">
-        <f>E14*D8+E15-34</f>
+      <c r="F17">
+        <f>F14*E8+F15-34</f>
         <v>-30.04488444352927</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B20">
         <v>0.4</v>
@@ -3006,7 +5947,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B22" s="3">
         <f>B21/453.92</f>
@@ -3015,7 +5956,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -3034,13 +5975,13 @@
         <v>453.93</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -3058,12 +5999,12 @@
         <v>2.3348666666666609</v>
       </c>
       <c r="E28">
-        <f>ABS(C28-C$27)</f>
-        <v>7.0045999999999822</v>
+        <f>ABS(C28-C$27)-ABS(B28)</f>
+        <v>4.0045999999999822</v>
       </c>
       <c r="F28" s="1">
-        <f>E28/C27</f>
-        <v>1.5431013592404076E-2</v>
+        <f>E28/$C$27</f>
+        <v>8.8220650761130174E-3</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -3081,12 +6022,12 @@
         <v>2.3366666666666638</v>
       </c>
       <c r="E29">
-        <f>ABS(C29-C$27)</f>
-        <v>7.0099999999999909</v>
+        <f>ABS(C29-C$27)-ABS(B29)</f>
+        <v>4.0099999999999909</v>
       </c>
       <c r="F29" s="1">
-        <f t="shared" ref="F29:F31" si="0">E29/C28</f>
-        <v>1.5208231276194044E-2</v>
+        <f t="shared" ref="F29:F31" si="4">E29/$C$27</f>
+        <v>8.8339611834423615E-3</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -3104,12 +6045,12 @@
         <v>2.3333333333333335</v>
       </c>
       <c r="E30">
-        <f>ABS(C30-C$27)</f>
-        <v>14</v>
+        <f>ABS(C30-C$27)-ABS(B30)</f>
+        <v>8</v>
       </c>
       <c r="F30" s="1">
-        <f t="shared" si="0"/>
-        <v>3.1325516871028372E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.7623862710109489E-2</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -3127,38 +6068,39 @@
         <v>2.3383333333333383</v>
       </c>
       <c r="E31">
-        <f>ABS(C31-C$27)</f>
-        <v>14.03000000000003</v>
+        <f>ABS(C31-C$27)-ABS(B31)</f>
+        <v>8.0300000000000296</v>
       </c>
       <c r="F31" s="1">
-        <f t="shared" si="0"/>
-        <v>2.9983117132904556E-2</v>
+        <f t="shared" si="4"/>
+        <v>1.7689952195272463E-2</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A13:B13"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="D13:E13"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E13:G13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan6"/>
   <dimension ref="A1:H42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <pane ySplit="5" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3170,7 +6112,7 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -3182,7 +6124,7 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -3194,7 +6136,7 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="35" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="33"/>
       <c r="C3" s="33"/>
@@ -3230,18 +6172,18 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -3408,7 +6350,7 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F16" s="2"/>
     </row>
@@ -3576,7 +6518,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F25" s="2"/>
     </row>
@@ -3744,7 +6686,7 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -3917,12 +6859,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan7"/>
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3934,17 +6877,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="37" t="s">
-        <v>81</v>
-      </c>
-      <c r="B1" s="37"/>
-      <c r="C1" s="37"/>
-      <c r="D1" s="37"/>
-      <c r="E1" s="37"/>
-      <c r="F1" s="37"/>
-      <c r="G1" s="37"/>
-      <c r="H1" s="37"/>
-      <c r="I1" s="37"/>
+      <c r="A1" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
       <c r="J1" t="s">
         <v>0</v>
       </c>
@@ -3954,7 +6897,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -4132,7 +7075,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B11">
         <v>2.2016690800516492</v>
@@ -4147,12 +7090,12 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
+      <c r="C13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="43"/>
     </row>
     <row r="14" spans="1:11" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
@@ -4283,12 +7226,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr codeName="Plan8"/>
   <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C26" sqref="C26:C27"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4305,7 +7249,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="28" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B1" s="29"/>
       <c r="C1" s="29"/>
@@ -4319,7 +7263,7 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B2" s="27"/>
       <c r="C2" s="27"/>
@@ -4333,7 +7277,7 @@
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="31" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B3" s="27"/>
       <c r="C3" s="27"/>
